--- a/data/cpmcfgWVLEN Table.xlsx
+++ b/data/cpmcfgWVLEN Table.xlsx
@@ -3917,8 +3917,8 @@
   </sheetPr>
   <dimension ref="A1:JO52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AR1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW8" activeCellId="0" sqref="AW8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AL9" activeCellId="0" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3936,7 +3936,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="12" width="16.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="13" width="13.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="21" style="12" width="13.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="44" min="44" style="12" width="11.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="44" min="44" style="12" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="45" style="12" width="13.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="12" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="12" width="14.51"/>
@@ -9227,31 +9227,31 @@
         <v>962.84907344847</v>
       </c>
       <c r="AD8" s="33" t="n">
-        <v>2017.05568692693</v>
+        <v>1810.67408909999</v>
       </c>
       <c r="AE8" s="33" t="n">
-        <v>1810.67408909999</v>
+        <v>1556.09473490686</v>
       </c>
       <c r="AF8" s="33" t="n">
-        <v>1556.09473490686</v>
+        <v>1312.84674254226</v>
       </c>
       <c r="AG8" s="33" t="n">
-        <v>1312.84674254226</v>
+        <v>1079.87611164076</v>
       </c>
       <c r="AH8" s="33" t="n">
-        <v>1079.87611164076</v>
+        <v>856.360781669305</v>
       </c>
       <c r="AI8" s="33" t="n">
-        <v>856.360781669305</v>
+        <v>641.554434151773</v>
       </c>
       <c r="AJ8" s="33" t="n">
-        <v>641.554434151773</v>
+        <v>434.730512684775</v>
       </c>
       <c r="AK8" s="33" t="n">
-        <v>434.730512684775</v>
+        <v>235.279450859237</v>
       </c>
       <c r="AL8" s="33" t="n">
-        <v>235.279450859237</v>
+        <v>62.1</v>
       </c>
       <c r="AM8" s="33" t="n">
         <v>1883.45496120135</v>
@@ -26618,7 +26618,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="10" width="13.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="2.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="8.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="6.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="9.68"/>

--- a/data/cpmcfgWVLEN Table.xlsx
+++ b/data/cpmcfgWVLEN Table.xlsx
@@ -232,6 +232,9 @@
         </r>
       </text>
     </comment>
+    <comment ref="CL1" authorId="0">
+      <text/>
+    </comment>
     <comment ref="CM1" authorId="0">
       <text>
         <r>
@@ -246,6 +249,12 @@
 Should be propagated to headers for DRS</t>
         </r>
       </text>
+    </comment>
+    <comment ref="CV1" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="DH1" authorId="0">
+      <text/>
     </comment>
     <comment ref="EZ1" authorId="0">
       <text>
@@ -514,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="784">
   <si>
     <t xml:space="preserve">European Organisation for Astronomical Research in the Southern Hemisphere</t>
   </si>
@@ -950,6 +959,9 @@
     <t xml:space="preserve">O8 FSR +</t>
   </si>
   <si>
+    <t xml:space="preserve">O-1 BEG DET1</t>
+  </si>
+  <si>
     <t xml:space="preserve">O0 BEG DET1</t>
   </si>
   <si>
@@ -977,6 +989,12 @@
     <t xml:space="preserve">O8 BEG DET1</t>
   </si>
   <si>
+    <t xml:space="preserve">O9 BEG DET1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-1 END DET1</t>
+  </si>
+  <si>
     <t xml:space="preserve">O0 END DET1</t>
   </si>
   <si>
@@ -1004,6 +1022,12 @@
     <t xml:space="preserve">O8 END DET1</t>
   </si>
   <si>
+    <t xml:space="preserve">O9 END DET1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-1 BEG DET2</t>
+  </si>
+  <si>
     <t xml:space="preserve">O0 BEG DET2</t>
   </si>
   <si>
@@ -1031,6 +1055,12 @@
     <t xml:space="preserve">O8 BEG DET2</t>
   </si>
   <si>
+    <t xml:space="preserve">O9 BEG DET2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-1 END DET2</t>
+  </si>
+  <si>
     <t xml:space="preserve">O0 END DET2</t>
   </si>
   <si>
@@ -1058,6 +1088,12 @@
     <t xml:space="preserve">O8 END DET2</t>
   </si>
   <si>
+    <t xml:space="preserve">O9 END DET2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-1 BEG DET3</t>
+  </si>
+  <si>
     <t xml:space="preserve">O0 BEG DET3</t>
   </si>
   <si>
@@ -1085,6 +1121,12 @@
     <t xml:space="preserve">O8 BEG DET3</t>
   </si>
   <si>
+    <t xml:space="preserve">O9 BEG DET3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-1 END DET3</t>
+  </si>
+  <si>
     <t xml:space="preserve">O0 END DET3</t>
   </si>
   <si>
@@ -1110,6 +1152,9 @@
   </si>
   <si>
     <t xml:space="preserve">O8 END DET3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O9 END DET3</t>
   </si>
   <si>
     <t xml:space="preserve">WLEN Piezo X Ratio</t>
@@ -3785,8 +3830,8 @@
   </sheetPr>
   <dimension ref="A1:KG52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="EQ1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="FD6" activeCellId="0" sqref="FD6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="EP1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="EY2" activeCellId="0" sqref="EY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4155,4235 +4200,4271 @@
       <c r="CK1" s="12" t="s">
         <v>112</v>
       </c>
+      <c r="CL1" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="CM1" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="CN1" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="CO1" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CP1" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="CQ1" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="CR1" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS1" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CT1" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="CU1" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="CV1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="CW1" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="CX1" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="CY1" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="CZ1" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="DA1" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="DB1" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="DC1" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="DD1" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="DE1" s="12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="DF1" s="12" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="DG1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="DH1" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="DI1" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="DJ1" s="12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="DK1" s="12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="DL1" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="DM1" s="12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="DN1" s="12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="DO1" s="12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="DP1" s="12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="DQ1" s="12" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="DR1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="DS1" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="DT1" s="12" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="DU1" s="12" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="DV1" s="12" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="DW1" s="12" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="DX1" s="12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="DY1" s="12" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="DZ1" s="12" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="EA1" s="12" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="EB1" s="12" t="s">
-        <v>148</v>
+        <v>155</v>
+      </c>
+      <c r="EC1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="ED1" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="EE1" s="12" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="EF1" s="12" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="EG1" s="12" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="EH1" s="12" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="EI1" s="12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="EJ1" s="12" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="EK1" s="12" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="EL1" s="12" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="EM1" s="12" t="s">
-        <v>157</v>
+        <v>166</v>
+      </c>
+      <c r="EN1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="EO1" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="EP1" s="12" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="EQ1" s="12" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="ER1" s="12" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="ES1" s="12" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="ET1" s="12" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="EU1" s="12" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="EV1" s="12" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="EW1" s="12" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="EX1" s="12" t="s">
-        <v>166</v>
+        <v>177</v>
+      </c>
+      <c r="EY1" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="EZ1" s="12" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="FA1" s="12" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="FB1" s="14" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="FC1" s="12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="FD1" s="12" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="FE1" s="12" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="FF1" s="12" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="FG1" s="12" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="FH1" s="12" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="FI1" s="12" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="FJ1" s="12" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="FK1" s="12" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="FL1" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="FM1" s="12" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="FN1" s="12" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="FO1" s="12" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="FP1" s="12" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="FQ1" s="12" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="FR1" s="12" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="FS1" s="12" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="FT1" s="12" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="FU1" s="12" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="FV1" s="12" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="FW1" s="15" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="FX1" s="15" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="FY1" s="15" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="FZ1" s="15" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="GA1" s="15" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="GB1" s="16" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="GC1" s="16" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="GD1" s="15" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="GE1" s="15" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="GF1" s="15" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="GG1" s="15" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="GH1" s="16" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="GI1" s="16" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="GJ1" s="15" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="GK1" s="15" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="GL1" s="15" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="GM1" s="15" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="GN1" s="16" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="GO1" s="16" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="GP1" s="15" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="GQ1" s="15" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="GR1" s="15" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="GS1" s="15" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="GT1" s="16" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="GU1" s="16" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="GV1" s="15" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="GW1" s="15" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="GX1" s="15" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="GY1" s="15" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="GZ1" s="16" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="HA1" s="16" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="HB1" s="15" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="HC1" s="15" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="HD1" s="15" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="HE1" s="15" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="HF1" s="16" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="HG1" s="16" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="HH1" s="15" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="HI1" s="15" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="HJ1" s="15" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="HK1" s="15" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="HL1" s="16" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="HM1" s="16" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="HN1" s="15" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="HO1" s="15" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="HP1" s="15" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="HQ1" s="15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="HR1" s="16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="HS1" s="16" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="HT1" s="15" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="HU1" s="15" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="HV1" s="15" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="HW1" s="15" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="HX1" s="16" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="HY1" s="16" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="HZ1" s="15" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="IA1" s="15" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="IB1" s="15" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="IC1" s="15" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="ID1" s="16" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="IE1" s="16" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="IF1" s="15" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="IG1" s="15" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="IH1" s="15" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="II1" s="15" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="IJ1" s="16" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="IK1" s="16" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="IL1" s="15" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="IM1" s="15" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="IN1" s="15" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="IO1" s="16" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="IP1" s="16" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="IQ1" s="15" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="IR1" s="15" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="IS1" s="15" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="IT1" s="16" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="IU1" s="16" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="IV1" s="15" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="IW1" s="15" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="IX1" s="15" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="IY1" s="16" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="IZ1" s="16" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="JA1" s="15" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="JB1" s="15" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="JC1" s="15" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="JD1" s="16" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="JE1" s="16" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="JF1" s="15" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="JG1" s="15" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="JH1" s="15" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="JI1" s="16" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="JJ1" s="16" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="JK1" s="15" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="JL1" s="15" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="JM1" s="15" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="JN1" s="16" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="JO1" s="16" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="JP1" s="15" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="JQ1" s="15" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="JR1" s="15" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="JS1" s="16" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="JT1" s="16" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="JU1" s="15" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="JV1" s="15" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="JW1" s="15" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="JX1" s="16" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="JY1" s="16" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="JZ1" s="15" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="KA1" s="15" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="KB1" s="15" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="KC1" s="16" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="KD1" s="16" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="KE1" s="15" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="KF1" s="17"/>
       <c r="KG1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="Q2" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="R2" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>307</v>
-      </c>
       <c r="T2" s="13" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AD2" s="14" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AF2" s="14" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="AG2" s="14" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AH2" s="14" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AI2" s="14" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AJ2" s="14" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AK2" s="14" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AL2" s="14" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AM2" s="14" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AN2" s="14" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AO2" s="14" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AP2" s="14" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AQ2" s="14" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AR2" s="14" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="AS2" s="14" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="AT2" s="14" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="AU2" s="14" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="AV2" s="14" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="AW2" s="14" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="AX2" s="14" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="AY2" s="14" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="AZ2" s="14" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="BA2" s="14" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="BB2" s="14" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="BC2" s="14" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="BD2" s="14" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="BE2" s="14" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="BF2" s="14" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="BG2" s="14" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="BH2" s="14" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="BI2" s="14" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="BJ2" s="14" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="BK2" s="20" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="BL2" s="20" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="BM2" s="20" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="BN2" s="20" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="BO2" s="20" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="BP2" s="20" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="BQ2" s="20" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="BR2" s="20" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="BS2" s="20" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="BT2" s="14" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="BU2" s="14" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="BV2" s="14" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="BW2" s="14" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="BX2" s="14" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="BY2" s="14" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="BZ2" s="14" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="CA2" s="14" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="CB2" s="14" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="CC2" s="14" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="CD2" s="14" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="CE2" s="14" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="CF2" s="14" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="CG2" s="14" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="CH2" s="14" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="CI2" s="14" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="CJ2" s="14" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="CK2" s="14" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="CL2" s="14"/>
       <c r="CM2" s="14" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="CN2" s="14" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="CO2" s="14" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="CP2" s="14" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="CQ2" s="14" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="CR2" s="14" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="CS2" s="14" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="CT2" s="14" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="CU2" s="14" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="CV2" s="14"/>
       <c r="CW2" s="14"/>
       <c r="CX2" s="14" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="CY2" s="14" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="CZ2" s="14" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="DA2" s="14" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="DB2" s="14" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="DC2" s="14" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="DD2" s="14" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="DE2" s="14" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="DF2" s="14" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="DG2" s="14"/>
       <c r="DH2" s="14"/>
       <c r="DI2" s="14" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="DJ2" s="14" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="DK2" s="14" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="DL2" s="14" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="DM2" s="14" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="DN2" s="14" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="DO2" s="14" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="DP2" s="14" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="DQ2" s="14" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="DR2" s="14"/>
       <c r="DS2" s="14"/>
       <c r="DT2" s="14" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DU2" s="14" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="DV2" s="14" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="DW2" s="14" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="DX2" s="14" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="DY2" s="14" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="DZ2" s="14" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="EA2" s="14" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="EB2" s="14" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="EC2" s="14"/>
       <c r="ED2" s="14"/>
       <c r="EE2" s="14" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="EF2" s="14" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="EG2" s="14" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="EH2" s="14" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="EI2" s="14" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="EJ2" s="14" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="EK2" s="14" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="EL2" s="14" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="EM2" s="14" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="EN2" s="14"/>
       <c r="EO2" s="14"/>
       <c r="EP2" s="14" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="EQ2" s="14" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="ER2" s="14" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="ES2" s="14" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="ET2" s="14" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="EU2" s="14" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="EV2" s="14" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="EW2" s="14" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="EX2" s="14" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="EY2" s="14"/>
       <c r="EZ2" s="18" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="FA2" s="18" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="FB2" s="14" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="FC2" s="14" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="FD2" s="14" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="FE2" s="14" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="FF2" s="14" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="FG2" s="14" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="FH2" s="14" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="FI2" s="14" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="FJ2" s="14" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="FK2" s="14" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="FL2" s="14" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="FM2" s="14" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="FN2" s="14" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="FO2" s="14" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="FP2" s="14" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="FQ2" s="14" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="FR2" s="14" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="FS2" s="14" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="FT2" s="14" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="FU2" s="14" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="FV2" s="14" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="FW2" s="21" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="FX2" s="21" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="FY2" s="21" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="FZ2" s="21" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="GA2" s="21" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="GB2" s="21" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="GC2" s="21" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="GD2" s="21" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="GE2" s="21" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="GF2" s="21" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="GG2" s="21" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="GH2" s="21" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="GI2" s="21" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="GJ2" s="21" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="GK2" s="21" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="GL2" s="21" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="GM2" s="21" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="GN2" s="21" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="GO2" s="21" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="GP2" s="21" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="GQ2" s="21" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="GR2" s="21" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="GS2" s="21" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="GT2" s="21" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="GU2" s="21" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="GV2" s="21" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="GW2" s="21" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="GX2" s="21" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="GY2" s="21" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="GZ2" s="21" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="HA2" s="21" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="HB2" s="21" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="HC2" s="21" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="HD2" s="21" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="HE2" s="21" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="HF2" s="21" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="HG2" s="21" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="HH2" s="21" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="HI2" s="21" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="HJ2" s="21" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="HK2" s="21" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="HL2" s="21" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="HM2" s="21" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="HN2" s="21" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="HO2" s="21" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="HP2" s="21" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="HQ2" s="21" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="HR2" s="21" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="HS2" s="21" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="HT2" s="21" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="HU2" s="21" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="HV2" s="21" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="HW2" s="21" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="HX2" s="21" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="HY2" s="21" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="HZ2" s="21" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="IA2" s="21" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="IB2" s="21" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="IC2" s="21" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="ID2" s="21" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="IE2" s="21" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="IF2" s="21" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="IG2" s="21" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="IH2" s="21" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="II2" s="21" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="IJ2" s="21" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="IK2" s="21" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="IL2" s="21" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="IM2" s="21" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="IN2" s="21" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="IO2" s="21" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="IP2" s="21" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="IQ2" s="21" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="IR2" s="21" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="IS2" s="21" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="IT2" s="21" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="IU2" s="21" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="IV2" s="21" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="IW2" s="21" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="IX2" s="21" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="IY2" s="21" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="IZ2" s="21" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="JA2" s="21" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="JB2" s="21" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="JC2" s="21" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="JD2" s="21" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="JE2" s="21" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="JF2" s="21" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="JG2" s="21" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="JH2" s="21" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="JI2" s="21" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="JJ2" s="21" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="JK2" s="21" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="JL2" s="21" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="JM2" s="21" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="JN2" s="21" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="JO2" s="21" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="JP2" s="21" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="JQ2" s="21" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="JR2" s="21" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="JS2" s="21" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="JT2" s="21" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="JU2" s="21" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="JV2" s="21" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="JW2" s="21" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="JX2" s="21" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="JY2" s="21" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="JZ2" s="21" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="KA2" s="21" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="KB2" s="21" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="KC2" s="21" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="KD2" s="21" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="KE2" s="21" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AH3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AJ3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AK3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AL3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AM3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AN3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AO3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AP3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AQ3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AR3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AS3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AT3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AU3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AV3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AW3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AX3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AY3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AZ3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="BA3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="BB3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="BC3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="BD3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="BE3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="BF3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="BG3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="BH3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="BI3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="BJ3" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="BK3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BL3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BM3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BN3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BO3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BP3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BQ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BR3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BS3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BT3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BU3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BV3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BW3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BX3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BY3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="BZ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CA3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CB3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CC3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CD3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CE3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CF3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CG3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CH3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CI3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CJ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CK3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CM3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CN3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CO3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CP3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CQ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CR3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CS3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CT3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CU3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CX3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CY3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="CZ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DA3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DB3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DC3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DD3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DE3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DF3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DI3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DJ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DK3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DL3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DM3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DN3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DO3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DP3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DQ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DT3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DU3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DV3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DW3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DX3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DY3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="DZ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EA3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EB3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EE3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EF3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EG3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EH3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EI3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EJ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EK3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EL3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EM3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EP3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EQ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="ER3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="ES3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="ET3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EU3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EV3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EW3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EX3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EZ3" s="12" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="FA3" s="12" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="FB3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FC3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FD3" s="12" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="FE3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FF3" s="12" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="FG3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FH3" s="12" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="FI3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FJ3" s="12" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="FK3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FL3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FM3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FN3" s="12" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="FO3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FP3" s="12" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="FQ3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FR3" s="12" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="FS3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FT3" s="12" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="FU3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FV3" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FW3" s="15" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="FX3" s="15" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="FY3" s="15" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="FZ3" s="15"/>
       <c r="GA3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="GB3" s="15"/>
       <c r="GC3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="GD3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="GE3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="GF3" s="15"/>
       <c r="GG3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="GH3" s="15"/>
       <c r="GI3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="GJ3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="GK3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="GL3" s="15"/>
       <c r="GM3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="GN3" s="15"/>
       <c r="GO3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="GP3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="GQ3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="GR3" s="15"/>
       <c r="GS3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="GT3" s="15"/>
       <c r="GU3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="GV3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="GW3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="GX3" s="15"/>
       <c r="GY3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="GZ3" s="15"/>
       <c r="HA3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HB3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HC3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HD3" s="15"/>
       <c r="HE3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="HF3" s="15"/>
       <c r="HG3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HH3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HI3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HJ3" s="15"/>
       <c r="HK3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="HL3" s="15"/>
       <c r="HM3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HN3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HO3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HP3" s="15"/>
       <c r="HQ3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="HR3" s="15"/>
       <c r="HS3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HT3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HU3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HV3" s="15"/>
       <c r="HW3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="HX3" s="15"/>
       <c r="HY3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="HZ3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="IA3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="IB3" s="15"/>
       <c r="IC3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="ID3" s="15"/>
       <c r="IE3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="IF3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="IG3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="IH3" s="15"/>
       <c r="II3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="IJ3" s="15"/>
       <c r="IK3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="IL3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="IM3" s="15"/>
       <c r="IN3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="IO3" s="15"/>
       <c r="IP3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="IQ3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="IR3" s="15"/>
       <c r="IS3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="IT3" s="15"/>
       <c r="IU3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="IV3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="IW3" s="15"/>
       <c r="IX3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="IY3" s="15"/>
       <c r="IZ3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="JA3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="JB3" s="15"/>
       <c r="JC3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="JD3" s="15"/>
       <c r="JE3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="JF3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="JG3" s="15"/>
       <c r="JH3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="JI3" s="15"/>
       <c r="JJ3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="JK3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="JL3" s="15"/>
       <c r="JM3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="JN3" s="15"/>
       <c r="JO3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="JP3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="JQ3" s="15"/>
       <c r="JR3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="JS3" s="15"/>
       <c r="JT3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="JU3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="JV3" s="15"/>
       <c r="JW3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="JX3" s="15"/>
       <c r="JY3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="JZ3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="KA3" s="15"/>
       <c r="KB3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="KC3" s="15"/>
       <c r="KD3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="KE3" s="15" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AH4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AI4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AJ4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AK4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AL4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AM4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AN4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AP4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AQ4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AR4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AS4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AT4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AU4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AV4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AW4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AX4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AY4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AZ4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="BA4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="BB4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="BC4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="BD4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="BE4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="BF4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="BG4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="BH4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="BI4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="BJ4" s="12" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="BK4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BL4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BM4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BN4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BO4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BP4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BQ4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BR4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BS4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BT4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BU4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BV4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BW4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BX4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BY4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BZ4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CA4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CB4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CC4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CD4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CE4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CF4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CG4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CH4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CI4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CJ4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CK4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CM4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CN4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CO4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CP4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CQ4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CR4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CS4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CT4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CU4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CX4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CY4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="CZ4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DA4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DB4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DC4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DD4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DE4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DF4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DI4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DJ4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DK4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DL4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DM4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DN4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DO4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DP4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DQ4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DT4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DU4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DV4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DW4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DX4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DY4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="DZ4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EA4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EB4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EE4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EF4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EG4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EH4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EI4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EJ4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EK4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EL4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EM4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EP4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EQ4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="ER4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="ES4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="ET4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EU4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EV4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EW4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EX4" s="12" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="EZ4" s="12" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="FA4" s="12" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="FB4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FC4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FD4" s="12" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="FE4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FF4" s="12" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="FG4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FH4" s="12" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="FI4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FJ4" s="12" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="FK4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FL4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FM4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FN4" s="12" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="FO4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FP4" s="12" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="FQ4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FR4" s="12" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="FS4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FT4" s="12" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="FU4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FV4" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FW4" s="15" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FX4" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FY4" s="15" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="FZ4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="GA4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="GB4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="GC4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="GD4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="GE4" s="15" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="GF4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="GG4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="GH4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="GI4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="GJ4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="GK4" s="15" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="GL4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="GM4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="GN4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="GO4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="GP4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="GQ4" s="15" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="GR4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="GS4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="GT4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="GU4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="GV4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="GW4" s="15" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="GX4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="GY4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="GZ4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="HA4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="HB4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="HC4" s="15" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="HD4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="HE4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="HF4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="HG4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="HH4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="HI4" s="15" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="HJ4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="HK4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="HL4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="HM4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="HN4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="HO4" s="15" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="HP4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="HQ4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="HR4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="HS4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="HT4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="HU4" s="15" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="HV4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="HW4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="HX4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="HY4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="HZ4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IA4" s="15" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="IB4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="IC4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="ID4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="IE4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IF4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IG4" s="15" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="IH4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="II4" s="15" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="IJ4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="IK4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IL4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IM4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="IN4" s="15" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="IO4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="IP4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IQ4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IR4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="IS4" s="15" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="IT4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="IU4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IV4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IW4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="IX4" s="15" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="IY4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="IZ4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JA4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JB4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="JC4" s="15" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="JD4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="JE4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JF4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JG4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="JH4" s="15" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="JI4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="JJ4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JK4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JL4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="JM4" s="15" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="JN4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="JO4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JP4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JQ4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="JR4" s="15" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="JS4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="JT4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JU4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JV4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="JW4" s="15" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="JX4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="JY4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JZ4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="KA4" s="15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="KB4" s="15" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="KC4" s="15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="KD4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="KE4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AG5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AH5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AI5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AJ5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AK5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AL5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AN5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AO5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AP5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AQ5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AR5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AS5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AT5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AU5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AV5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AW5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AX5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AY5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AZ5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="BA5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="BB5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="BC5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="BD5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="BE5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="BF5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="BG5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="BH5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="BI5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="BJ5" s="13" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="BT5" s="22" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="BU5" s="22" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="BV5" s="22" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="BW5" s="22" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="BX5" s="22" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="BY5" s="22" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="BZ5" s="22" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="CA5" s="22" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="CB5" s="22" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="CC5" s="14" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="CD5" s="14" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="CE5" s="14" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="CF5" s="14" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="CG5" s="14" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="CH5" s="14" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="CI5" s="14" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="CJ5" s="14" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="CK5" s="14" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="CL5" s="14"/>
       <c r="CM5" s="14" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="CN5" s="14" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="CO5" s="12" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="CP5" s="12" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="CQ5" s="12" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="CR5" s="12" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="CS5" s="12" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="CT5" s="12" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="CU5" s="12" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="CX5" s="12" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="CY5" s="12" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="CZ5" s="12" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="DA5" s="12" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="DB5" s="12" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="DC5" s="12" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="DD5" s="12" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="DE5" s="12" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="DF5" s="12" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="DI5" s="12" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="DJ5" s="12" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="DK5" s="12" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="DL5" s="12" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="DM5" s="12" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="DN5" s="12" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="DO5" s="12" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="DP5" s="12" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="DQ5" s="12" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="DT5" s="12" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="DU5" s="12" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="DV5" s="12" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="DW5" s="12" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="DX5" s="12" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="DY5" s="12" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="DZ5" s="12" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="EA5" s="12" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="EB5" s="12" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="EE5" s="12" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="EF5" s="12" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="EG5" s="12" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="EH5" s="12" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="EI5" s="12" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="EJ5" s="12" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="EK5" s="12" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="EL5" s="12" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="EM5" s="12" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="EP5" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="EQ5" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="ER5" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="ES5" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="ET5" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="EU5" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="EV5" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="EW5" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="EX5" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="EZ5" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="FA5" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="EQ5" s="12" t="s">
+      <c r="FB5" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="ER5" s="12" t="s">
+      <c r="FC5" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="ES5" s="12" t="s">
+      <c r="FD5" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="ET5" s="12" t="s">
+      <c r="FE5" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="EU5" s="12" t="s">
+      <c r="FF5" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="EV5" s="12" t="s">
+      <c r="FG5" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="EW5" s="12" t="s">
+      <c r="FH5" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="EX5" s="12" t="s">
+      <c r="FI5" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="EZ5" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="FA5" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="FB5" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="FC5" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="FD5" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="FE5" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="FF5" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="FG5" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="FH5" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="FI5" s="12" t="s">
-        <v>595</v>
-      </c>
       <c r="FJ5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FK5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FL5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FM5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FN5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FO5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FP5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FQ5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FR5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FS5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FT5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FU5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FV5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FW5" s="15" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="FX5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FY5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="FZ5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GA5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GB5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GC5" s="15" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="GD5" s="15" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="GE5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GF5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GG5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GH5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GI5" s="15" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="GJ5" s="15" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="GK5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GL5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GM5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GN5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GO5" s="15" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="GP5" s="15" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="GQ5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GR5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GS5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GT5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GU5" s="15" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="GV5" s="15" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="GW5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GX5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GY5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="GZ5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HA5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HB5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HC5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HD5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HE5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HF5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HG5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HH5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HI5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HJ5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HK5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HL5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HM5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HN5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HO5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HP5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HQ5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HR5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HS5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HT5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HU5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HV5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HW5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HX5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HY5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="HZ5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IA5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IB5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IC5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="ID5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IE5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IF5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IG5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IH5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="II5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IJ5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IK5" s="15" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="IL5" s="15" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="IM5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IN5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IO5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IP5" s="15" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="IQ5" s="15" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="IR5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IS5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IT5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IU5" s="15" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="IV5" s="15" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="IW5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IX5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IY5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="IZ5" s="15" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="JA5" s="15" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="JB5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JC5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JD5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JE5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JF5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JG5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JH5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JI5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JJ5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JK5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JL5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JM5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JN5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JO5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JP5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JQ5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JR5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JS5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JT5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JU5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JV5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JW5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JX5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JY5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="JZ5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="KA5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="KB5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="KC5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="KD5" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="KE5" s="15" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="AE6" s="14" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="AF6" s="12" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="AK6" s="14" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="AL6" s="14" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="AN6" s="14" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="AO6" s="14" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="AP6" s="14" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="AQ6" s="12" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="AR6" s="14" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="AS6" s="14" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="AT6" s="14" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="AU6" s="14" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="AV6" s="14" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="AW6" s="14" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="AX6" s="14" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="AY6" s="14" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="AZ6" s="14" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BA6" s="14" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BB6" s="12" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BC6" s="14" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BD6" s="14" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BE6" s="14" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BF6" s="14" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BG6" s="14" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BH6" s="14" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BI6" s="14" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BJ6" s="14" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BK6" s="23"/>
       <c r="BT6" s="12" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BU6" s="12" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BV6" s="12" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BW6" s="12" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BX6" s="12" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BY6" s="12" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BZ6" s="12" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="CA6" s="12" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="CB6" s="12" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="CC6" s="12" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="CD6" s="12" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="CE6" s="12" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="CF6" s="12" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="CG6" s="12" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="CH6" s="12" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="CI6" s="12" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="CJ6" s="12" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="CK6" s="12" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="CL6" s="14" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="CM6" s="14" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="CN6" s="12" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="CO6" s="14" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="CP6" s="14" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="CQ6" s="14" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="CR6" s="14" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="CS6" s="14" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="CT6" s="14" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="CU6" s="14" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="CV6" s="14" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="CW6" s="14" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="CX6" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="CY6" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="CZ6" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="DA6" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="DB6" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="DC6" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="DD6" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="DE6" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="DF6" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="DG6" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="DH6" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="CY6" s="14" t="s">
+      <c r="DI6" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="CZ6" s="14" t="s">
+      <c r="DJ6" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="DA6" s="14" t="s">
+      <c r="DK6" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="DB6" s="14" t="s">
+      <c r="DL6" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="DC6" s="14" t="s">
+      <c r="DM6" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="DD6" s="14" t="s">
+      <c r="DN6" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="DE6" s="14" t="s">
+      <c r="DO6" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="DF6" s="14" t="s">
+      <c r="DP6" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="DG6" s="14" t="s">
+      <c r="DQ6" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="DH6" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="DI6" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="DJ6" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="DK6" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="DL6" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="DM6" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="DN6" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="DO6" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="DP6" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="DQ6" s="14" t="s">
-        <v>690</v>
-      </c>
       <c r="DR6" s="14" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="DS6" s="14" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="DT6" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="DU6" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="DV6" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="DW6" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="DX6" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="DY6" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="DZ6" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="EA6" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="EB6" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="EC6" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="ED6" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="DU6" s="14" t="s">
+      <c r="EE6" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="DV6" s="14" t="s">
+      <c r="EF6" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="DW6" s="14" t="s">
+      <c r="EG6" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="DX6" s="14" t="s">
+      <c r="EH6" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="DY6" s="14" t="s">
+      <c r="EI6" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="DZ6" s="14" t="s">
+      <c r="EJ6" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="EA6" s="14" t="s">
+      <c r="EK6" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="EB6" s="14" t="s">
+      <c r="EL6" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="EC6" s="14" t="s">
+      <c r="EM6" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="ED6" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="EE6" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="EF6" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="EG6" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="EH6" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="EI6" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="EJ6" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="EK6" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="EL6" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="EM6" s="14" t="s">
-        <v>690</v>
-      </c>
       <c r="EN6" s="14" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="EO6" s="14" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="EP6" s="14" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="EQ6" s="14" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="ER6" s="14" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="ES6" s="14" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="ET6" s="14" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="EU6" s="14" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="EV6" s="14" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="EW6" s="14" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="EX6" s="14" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="EY6" s="14" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="FW6" s="15"/>
       <c r="FX6" s="15"/>
@@ -8660,12 +8741,8 @@
       <c r="AX7" s="33" t="n">
         <v>68.5</v>
       </c>
-      <c r="AY7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="33"/>
       <c r="BA7" s="33" t="n">
         <v>1898.845912006</v>
       </c>
@@ -8693,9 +8770,7 @@
       <c r="BI7" s="33" t="n">
         <v>111.873070134744</v>
       </c>
-      <c r="BJ7" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ7" s="33"/>
       <c r="BK7" s="34" t="n">
         <f aca="false">IF(OR($S7+B$52&lt;'Standard Settings'!$G2,$S7+B$52&gt;'Standard Settings'!$I2),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S7+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F2+EchelleFPAparam!$M$3)))</f>
         <v>1110.78099408246</v>
@@ -9340,12 +9415,8 @@
       <c r="AX8" s="33" t="n">
         <v>101.895400872412</v>
       </c>
-      <c r="AY8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY8" s="33"/>
+      <c r="AZ8" s="33"/>
       <c r="BA8" s="33" t="n">
         <v>1954.74064931309</v>
       </c>
@@ -9373,9 +9444,7 @@
       <c r="BI8" s="33" t="n">
         <v>158.851463266915</v>
       </c>
-      <c r="BJ8" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ8" s="33"/>
       <c r="BK8" s="34" t="n">
         <f aca="false">IF(OR($S8+B$52&lt;'Standard Settings'!$G3,$S8+B$52&gt;'Standard Settings'!$I3),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S8+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F3+EchelleFPAparam!$M$3)))</f>
         <v>1113.3214911183</v>
@@ -10020,12 +10089,8 @@
       <c r="AX9" s="33" t="n">
         <v>98.2951374723363</v>
       </c>
-      <c r="AY9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
       <c r="BA9" s="33" t="n">
         <v>1965.19479948075</v>
       </c>
@@ -10053,9 +10118,7 @@
       <c r="BI9" s="33" t="n">
         <v>145.320622360176</v>
       </c>
-      <c r="BJ9" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ9" s="33"/>
       <c r="BK9" s="34" t="n">
         <f aca="false">IF(OR($S9+B$52&lt;'Standard Settings'!$G4,$S9+B$52&gt;'Standard Settings'!$I4),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S9+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F4+EchelleFPAparam!$M$3)))</f>
         <v>1348.80549281441</v>
@@ -10700,12 +10763,8 @@
       <c r="AX10" s="33" t="n">
         <v>139.531558124755</v>
       </c>
-      <c r="AY10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="33"/>
       <c r="BA10" s="33" t="n">
         <v>1989.25092821348</v>
       </c>
@@ -10733,9 +10792,7 @@
       <c r="BI10" s="33" t="n">
         <v>185.416264976191</v>
       </c>
-      <c r="BJ10" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ10" s="33"/>
       <c r="BK10" s="34" t="n">
         <f aca="false">IF(OR($S10+B$52&lt;'Standard Settings'!$G5,$S10+B$52&gt;'Standard Settings'!$I5),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S10+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F5+EchelleFPAparam!$M$3)))</f>
         <v>1351.89038207222</v>
@@ -11380,12 +11437,8 @@
       <c r="AX11" s="33" t="n">
         <v>47.3091425695659</v>
       </c>
-      <c r="AY11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="33"/>
       <c r="BA11" s="33" t="n">
         <v>2000.66591510066</v>
       </c>
@@ -11413,9 +11466,7 @@
       <c r="BI11" s="33" t="n">
         <v>65.3268599930125</v>
       </c>
-      <c r="BJ11" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ11" s="33"/>
       <c r="BK11" s="34" t="n">
         <f aca="false">IF(OR($S11+B$52&lt;'Standard Settings'!$G6,$S11+B$52&gt;'Standard Settings'!$I6),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S11+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F6+EchelleFPAparam!$M$3)))</f>
         <v>1766.19193859474</v>
@@ -12060,12 +12111,8 @@
       <c r="AX12" s="33" t="n">
         <v>64.2981681020832</v>
       </c>
-      <c r="AY12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
       <c r="BA12" s="33" t="n">
         <v>2021.64640398496</v>
       </c>
@@ -12093,9 +12140,7 @@
       <c r="BI12" s="33" t="n">
         <v>81.8507618364068</v>
       </c>
-      <c r="BJ12" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ12" s="33"/>
       <c r="BK12" s="34" t="n">
         <f aca="false">IF(OR($S12+B$52&lt;'Standard Settings'!$G7,$S12+B$52&gt;'Standard Settings'!$I7),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S12+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F7+EchelleFPAparam!$M$3)))</f>
         <v>1770.30720931892</v>
@@ -12740,12 +12785,8 @@
       <c r="AX13" s="33" t="n">
         <v>81.0207071683745</v>
       </c>
-      <c r="AY13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY13" s="33"/>
+      <c r="AZ13" s="33"/>
       <c r="BA13" s="33" t="n">
         <v>2042.01205193017</v>
       </c>
@@ -12773,9 +12814,7 @@
       <c r="BI13" s="33" t="n">
         <v>109.803628718229</v>
       </c>
-      <c r="BJ13" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ13" s="33"/>
       <c r="BK13" s="34" t="n">
         <f aca="false">IF(OR($S13+B$52&lt;'Standard Settings'!$G8,$S13+B$52&gt;'Standard Settings'!$I8),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S13+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F8+EchelleFPAparam!$M$3)))</f>
         <v>1774.35612646979</v>
@@ -13420,12 +13459,8 @@
       <c r="AX14" s="33" t="n">
         <v>108.413717487351</v>
       </c>
-      <c r="AY14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY14" s="33"/>
+      <c r="AZ14" s="33"/>
       <c r="BA14" s="33" t="n">
         <v>1857.25974788385</v>
       </c>
@@ -13451,9 +13486,7 @@
         <v>141.410709260168</v>
       </c>
       <c r="BI14" s="33"/>
-      <c r="BJ14" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ14" s="33"/>
       <c r="BK14" s="34" t="n">
         <f aca="false">IF(OR($S14+B$52&lt;'Standard Settings'!$G9,$S14+B$52&gt;'Standard Settings'!$I9),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S14+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F9+EchelleFPAparam!$M$3)))</f>
         <v>1778.33838170665</v>
@@ -14096,12 +14129,8 @@
       <c r="AX15" s="33" t="n">
         <v>4.53868451264693</v>
       </c>
-      <c r="AY15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="33"/>
       <c r="BA15" s="33" t="n">
         <v>1971.61958262492</v>
       </c>
@@ -14129,9 +14158,7 @@
       <c r="BI15" s="33" t="n">
         <v>15.6854332263679</v>
       </c>
-      <c r="BJ15" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ15" s="33"/>
       <c r="BK15" s="34" t="n">
         <f aca="false">IF(OR($S15+B$52&lt;'Standard Settings'!$G10,$S15+B$52&gt;'Standard Settings'!$I10),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S15+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F10+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -14776,12 +14803,8 @@
       <c r="AX16" s="33" t="n">
         <v>17.0967002922758</v>
       </c>
-      <c r="AY16" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="33"/>
       <c r="BA16" s="33" t="n">
         <v>1988.52906909307</v>
       </c>
@@ -14809,9 +14832,7 @@
       <c r="BI16" s="33" t="n">
         <v>28.0003434748064</v>
       </c>
-      <c r="BJ16" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ16" s="33"/>
       <c r="BK16" s="34" t="n">
         <f aca="false">IF(OR($S16+B$52&lt;'Standard Settings'!$G11,$S16+B$52&gt;'Standard Settings'!$I11),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S16+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F11+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -15456,12 +15477,8 @@
       <c r="AX17" s="33" t="n">
         <v>65.4832652896797</v>
       </c>
-      <c r="AY17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="33"/>
       <c r="BA17" s="33" t="n">
         <v>1807.48655860346</v>
       </c>
@@ -15487,9 +15504,7 @@
         <v>75.344364400545</v>
       </c>
       <c r="BI17" s="33"/>
-      <c r="BJ17" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ17" s="33"/>
       <c r="BK17" s="34" t="n">
         <f aca="false">IF(OR($S17+B$52&lt;'Standard Settings'!$G12,$S17+B$52&gt;'Standard Settings'!$I12),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S17+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F12+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -16132,12 +16147,8 @@
         <v>77.0570875301261</v>
       </c>
       <c r="AX18" s="33"/>
-      <c r="AY18" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY18" s="33"/>
+      <c r="AZ18" s="33"/>
       <c r="BA18" s="33" t="n">
         <v>1837.14489225096</v>
       </c>
@@ -16163,9 +16174,7 @@
         <v>86.8795247158519</v>
       </c>
       <c r="BI18" s="33"/>
-      <c r="BJ18" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ18" s="33"/>
       <c r="BK18" s="34" t="n">
         <f aca="false">IF(OR($S18+B$52&lt;'Standard Settings'!$G13,$S18+B$52&gt;'Standard Settings'!$I13),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S18+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F13+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -16692,10 +16701,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O19" s="12" t="n">
         <f aca="false">'Standard Settings'!$E14</f>
@@ -16807,12 +16816,8 @@
         <v>36.6045317359385</v>
       </c>
       <c r="AX19" s="33"/>
-      <c r="AY19" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY19" s="33"/>
+      <c r="AZ19" s="33"/>
       <c r="BA19" s="33" t="n">
         <v>2001.9978694205</v>
       </c>
@@ -16838,9 +16843,7 @@
         <v>42.156616447602</v>
       </c>
       <c r="BI19" s="33"/>
-      <c r="BJ19" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ19" s="33"/>
       <c r="BK19" s="34" t="n">
         <f aca="false">IF(OR($S19+B$52&lt;'Standard Settings'!$G14,$S19+B$52&gt;'Standard Settings'!$I14),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S19+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F14+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -17367,10 +17370,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O20" s="12" t="n">
         <f aca="false">'Standard Settings'!$E15</f>
@@ -17482,12 +17485,8 @@
         <v>45.5414912910996</v>
       </c>
       <c r="AX20" s="33"/>
-      <c r="AY20" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY20" s="33"/>
+      <c r="AZ20" s="33"/>
       <c r="BA20" s="33" t="n">
         <v>2015.13048102056</v>
       </c>
@@ -17513,9 +17512,7 @@
         <v>50.9222893571035</v>
       </c>
       <c r="BI20" s="33"/>
-      <c r="BJ20" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ20" s="33"/>
       <c r="BK20" s="34" t="n">
         <f aca="false">IF(OR($S20+B$52&lt;'Standard Settings'!$G15,$S20+B$52&gt;'Standard Settings'!$I15),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S20+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F15+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -18042,10 +18039,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O21" s="12" t="n">
         <f aca="false">'Standard Settings'!$E16</f>
@@ -18157,12 +18154,8 @@
         <v>79.9348397057519</v>
       </c>
       <c r="AX21" s="33"/>
-      <c r="AY21" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY21" s="33"/>
+      <c r="AZ21" s="33"/>
       <c r="BA21" s="33" t="n">
         <v>2036.01539644727</v>
       </c>
@@ -18188,9 +18181,7 @@
         <v>84.5729363723761</v>
       </c>
       <c r="BI21" s="33"/>
-      <c r="BJ21" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ21" s="33"/>
       <c r="BK21" s="34" t="n">
         <f aca="false">IF(OR($S21+B$52&lt;'Standard Settings'!$G16,$S21+B$52&gt;'Standard Settings'!$I16),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S21+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F16+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -18717,10 +18708,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O22" s="12" t="n">
         <f aca="false">'Standard Settings'!$E17</f>
@@ -18832,12 +18823,8 @@
         <v>89.7421958213354</v>
       </c>
       <c r="AX22" s="33"/>
-      <c r="AY22" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY22" s="33"/>
+      <c r="AZ22" s="33"/>
       <c r="BA22" s="33" t="n">
         <v>1772.95668926583</v>
       </c>
@@ -18861,9 +18848,7 @@
       </c>
       <c r="BH22" s="33"/>
       <c r="BI22" s="33"/>
-      <c r="BJ22" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ22" s="33"/>
       <c r="BK22" s="34" t="n">
         <f aca="false">IF(OR($S22+B$52&lt;'Standard Settings'!$G17,$S22+B$52&gt;'Standard Settings'!$I17),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S22+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F17+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -19390,10 +19375,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O23" s="12" t="n">
         <f aca="false">'Standard Settings'!$E18</f>
@@ -19503,12 +19488,8 @@
       </c>
       <c r="AW23" s="33"/>
       <c r="AX23" s="33"/>
-      <c r="AY23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY23" s="33"/>
+      <c r="AZ23" s="33"/>
       <c r="BA23" s="33" t="n">
         <v>1795.43013020073</v>
       </c>
@@ -19532,9 +19513,7 @@
       </c>
       <c r="BH23" s="33"/>
       <c r="BI23" s="33"/>
-      <c r="BJ23" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ23" s="33"/>
       <c r="BK23" s="34" t="n">
         <f aca="false">IF(OR($S23+B$52&lt;'Standard Settings'!$G18,$S23+B$52&gt;'Standard Settings'!$I18),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S23+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F18+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -20061,10 +20040,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O24" s="12" t="n">
         <f aca="false">'Standard Settings'!$E19</f>
@@ -20172,12 +20151,8 @@
       </c>
       <c r="AW24" s="33"/>
       <c r="AX24" s="33"/>
-      <c r="AY24" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY24" s="33"/>
+      <c r="AZ24" s="33"/>
       <c r="BA24" s="33" t="n">
         <v>1880.98378757643</v>
       </c>
@@ -20201,9 +20176,7 @@
       </c>
       <c r="BH24" s="33"/>
       <c r="BI24" s="33"/>
-      <c r="BJ24" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ24" s="33"/>
       <c r="BK24" s="34" t="n">
         <f aca="false">IF(OR($S24+B$52&lt;'Standard Settings'!$G19,$S24+B$52&gt;'Standard Settings'!$I19),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S24+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F19+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -20730,10 +20703,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O25" s="12" t="n">
         <f aca="false">'Standard Settings'!$E20</f>
@@ -20841,12 +20814,8 @@
       </c>
       <c r="AW25" s="33"/>
       <c r="AX25" s="33"/>
-      <c r="AY25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY25" s="33"/>
+      <c r="AZ25" s="33"/>
       <c r="BA25" s="33" t="n">
         <v>1901.13101954083</v>
       </c>
@@ -20870,9 +20839,7 @@
       </c>
       <c r="BH25" s="33"/>
       <c r="BI25" s="33"/>
-      <c r="BJ25" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ25" s="33"/>
       <c r="BK25" s="34" t="n">
         <f aca="false">IF(OR($S25+B$52&lt;'Standard Settings'!$G20,$S25+B$52&gt;'Standard Settings'!$I20),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S25+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F20+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -21399,10 +21366,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O26" s="12" t="n">
         <f aca="false">'Standard Settings'!$E21</f>
@@ -21510,12 +21477,8 @@
       </c>
       <c r="AW26" s="33"/>
       <c r="AX26" s="33"/>
-      <c r="AY26" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY26" s="33"/>
+      <c r="AZ26" s="33"/>
       <c r="BA26" s="33" t="n">
         <v>1805.76108168504</v>
       </c>
@@ -21539,9 +21502,7 @@
       </c>
       <c r="BH26" s="33"/>
       <c r="BI26" s="33"/>
-      <c r="BJ26" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ26" s="33"/>
       <c r="BK26" s="34" t="n">
         <f aca="false">IF(OR($S26+B$52&lt;'Standard Settings'!$G21,$S26+B$52&gt;'Standard Settings'!$I21),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S26+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F21+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -22068,10 +22029,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O27" s="12" t="n">
         <f aca="false">'Standard Settings'!$E22</f>
@@ -22179,12 +22140,8 @@
       </c>
       <c r="AW27" s="33"/>
       <c r="AX27" s="33"/>
-      <c r="AY27" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY27" s="33"/>
+      <c r="AZ27" s="33"/>
       <c r="BA27" s="33" t="n">
         <v>1829.77539994624</v>
       </c>
@@ -22208,9 +22165,7 @@
       </c>
       <c r="BH27" s="33"/>
       <c r="BI27" s="33"/>
-      <c r="BJ27" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ27" s="33"/>
       <c r="BK27" s="34" t="n">
         <f aca="false">IF(OR($S27+B$52&lt;'Standard Settings'!$G22,$S27+B$52&gt;'Standard Settings'!$I22),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S27+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F22+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -22737,10 +22692,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O28" s="12" t="n">
         <f aca="false">'Standard Settings'!$E23</f>
@@ -22848,12 +22803,8 @@
       </c>
       <c r="AW28" s="33"/>
       <c r="AX28" s="33"/>
-      <c r="AY28" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY28" s="33"/>
+      <c r="AZ28" s="33"/>
       <c r="BA28" s="33" t="n">
         <v>1899.27096950364</v>
       </c>
@@ -22877,9 +22828,7 @@
       </c>
       <c r="BH28" s="33"/>
       <c r="BI28" s="33"/>
-      <c r="BJ28" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ28" s="33"/>
       <c r="BK28" s="34" t="n">
         <f aca="false">IF(OR($S28+B$52&lt;'Standard Settings'!$G23,$S28+B$52&gt;'Standard Settings'!$I23),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S28+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F23+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -23406,10 +23355,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O29" s="12" t="n">
         <f aca="false">'Standard Settings'!$E24</f>
@@ -23517,12 +23466,8 @@
       </c>
       <c r="AW29" s="33"/>
       <c r="AX29" s="33"/>
-      <c r="AY29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ29" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY29" s="33"/>
+      <c r="AZ29" s="33"/>
       <c r="BA29" s="33" t="n">
         <v>1921.54183501178</v>
       </c>
@@ -23546,9 +23491,7 @@
       </c>
       <c r="BH29" s="33"/>
       <c r="BI29" s="33"/>
-      <c r="BJ29" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ29" s="33"/>
       <c r="BK29" s="34" t="n">
         <f aca="false">IF(OR($S29+B$52&lt;'Standard Settings'!$G24,$S29+B$52&gt;'Standard Settings'!$I24),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S29+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F24+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -24075,10 +24018,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O30" s="12" t="n">
         <f aca="false">'Standard Settings'!$E25</f>
@@ -24186,12 +24129,8 @@
       </c>
       <c r="AW30" s="33"/>
       <c r="AX30" s="33"/>
-      <c r="AY30" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ30" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY30" s="33"/>
+      <c r="AZ30" s="33"/>
       <c r="BA30" s="33" t="n">
         <v>1983.35486947738</v>
       </c>
@@ -24215,9 +24154,7 @@
       </c>
       <c r="BH30" s="33"/>
       <c r="BI30" s="33"/>
-      <c r="BJ30" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ30" s="33"/>
       <c r="BK30" s="34" t="n">
         <f aca="false">IF(OR($S30+B$52&lt;'Standard Settings'!$G25,$S30+B$52&gt;'Standard Settings'!$I25),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S30+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F25+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -24744,10 +24681,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O31" s="12" t="n">
         <f aca="false">'Standard Settings'!$E26</f>
@@ -24855,12 +24792,8 @@
       </c>
       <c r="AW31" s="33"/>
       <c r="AX31" s="33"/>
-      <c r="AY31" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY31" s="33"/>
+      <c r="AZ31" s="33"/>
       <c r="BA31" s="33" t="n">
         <v>1993.39657164802</v>
       </c>
@@ -24884,9 +24817,7 @@
       </c>
       <c r="BH31" s="33"/>
       <c r="BI31" s="33"/>
-      <c r="BJ31" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ31" s="33"/>
       <c r="BK31" s="34" t="n">
         <f aca="false">IF(OR($S31+B$52&lt;'Standard Settings'!$G26,$S31+B$52&gt;'Standard Settings'!$I26),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S31+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F26+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -25413,10 +25344,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O32" s="12" t="n">
         <f aca="false">'Standard Settings'!$E27</f>
@@ -25524,12 +25455,8 @@
       </c>
       <c r="AW32" s="33"/>
       <c r="AX32" s="33"/>
-      <c r="AY32" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ32" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY32" s="33"/>
+      <c r="AZ32" s="33"/>
       <c r="BA32" s="33" t="n">
         <v>2021.78707508221</v>
       </c>
@@ -25553,9 +25480,7 @@
       </c>
       <c r="BH32" s="33"/>
       <c r="BI32" s="33"/>
-      <c r="BJ32" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ32" s="33"/>
       <c r="BK32" s="34" t="n">
         <f aca="false">IF(OR($S32+B$52&lt;'Standard Settings'!$G27,$S32+B$52&gt;'Standard Settings'!$I27),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S32+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F27+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -26082,10 +26007,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O33" s="12" t="n">
         <f aca="false">'Standard Settings'!$E28</f>
@@ -26193,12 +26118,8 @@
       </c>
       <c r="AW33" s="33"/>
       <c r="AX33" s="33"/>
-      <c r="AY33" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ33" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY33" s="33"/>
+      <c r="AZ33" s="33"/>
       <c r="BA33" s="33" t="n">
         <v>1978.04634459023</v>
       </c>
@@ -26222,9 +26143,7 @@
       </c>
       <c r="BH33" s="33"/>
       <c r="BI33" s="33"/>
-      <c r="BJ33" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ33" s="33"/>
       <c r="BK33" s="34" t="n">
         <f aca="false">IF(OR($S33+B$52&lt;'Standard Settings'!$G28,$S33+B$52&gt;'Standard Settings'!$I28),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S33+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F28+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -26751,10 +26670,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O34" s="12" t="n">
         <f aca="false">'Standard Settings'!$E29</f>
@@ -26862,12 +26781,8 @@
       </c>
       <c r="AW34" s="33"/>
       <c r="AX34" s="33"/>
-      <c r="AY34" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ34" s="33" t="n">
-        <v>2048.1</v>
-      </c>
+      <c r="AY34" s="33"/>
+      <c r="AZ34" s="33"/>
       <c r="BA34" s="33" t="n">
         <v>1984.79260127851</v>
       </c>
@@ -26891,9 +26806,7 @@
       </c>
       <c r="BH34" s="33"/>
       <c r="BI34" s="33"/>
-      <c r="BJ34" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ34" s="33"/>
       <c r="BK34" s="34" t="n">
         <f aca="false">IF(OR($S34+B$52&lt;'Standard Settings'!$G29,$S34+B$52&gt;'Standard Settings'!$I29),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S34+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F29+EchelleFPAparam!$M$3)))</f>
         <v>-1</v>
@@ -27388,7 +27301,7 @@
     <row r="41" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="CP42" s="12" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -27402,7 +27315,7 @@
     <row r="51" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="B52" s="12" t="n">
         <v>0</v>
@@ -27432,7 +27345,7 @@
         <v>8</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="M52" s="12" t="n">
         <v>7</v>
@@ -27531,12 +27444,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
       <c r="D1" s="43" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
@@ -27556,68 +27469,68 @@
     </row>
     <row r="2" s="50" customFormat="true" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="46" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="L2" s="46" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="M2" s="46" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="N2" s="46"/>
       <c r="O2" s="46" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="P2" s="46"/>
       <c r="Q2" s="26" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="R2" s="46"/>
       <c r="S2" s="46" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="T2" s="50" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="U2" s="50" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="V2" s="50" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="W2" s="50" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="AB2" s="50" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27754,34 +27667,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="H1" s="60" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="P1" s="46" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27790,13 +27703,13 @@
         <v>1028.41657886447</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="E2" s="54" t="n">
         <v>65</v>
@@ -27824,13 +27737,13 @@
         <v>1032.87446060836</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="E3" s="54" t="n">
         <v>65.5</v>
@@ -27858,13 +27771,13 @@
         <v>1229.62851820751</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="E4" s="54" t="n">
         <v>65</v>
@@ -27889,13 +27802,13 @@
         <v>1234.95859420565</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="E5" s="54" t="n">
         <v>65.5</v>
@@ -27923,13 +27836,13 @@
         <v>1564.26169046599</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="E6" s="54" t="n">
         <v>64.5</v>
@@ -27954,13 +27867,13 @@
         <v>1571.19199548738</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="E7" s="54" t="n">
         <v>65</v>
@@ -27988,13 +27901,13 @@
         <v>1578.00264815166</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="E8" s="54" t="n">
         <v>65.5</v>
@@ -28022,13 +27935,13 @@
         <v>1584.69312980124</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="E9" s="54" t="n">
         <v>66</v>
@@ -28056,13 +27969,13 @@
         <v>2156.14005349441</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="E10" s="54" t="n">
         <v>64</v>
@@ -28087,13 +28000,13 @@
         <v>2165.90080218368</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="E11" s="54" t="n">
         <v>64.5</v>
@@ -28121,13 +28034,13 @@
         <v>2203.2871351339</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="E12" s="54" t="n">
         <v>66.5</v>
@@ -28155,13 +28068,13 @@
         <v>2212.21599400003</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="E13" s="54" t="n">
         <v>67</v>
@@ -28189,13 +28102,13 @@
         <v>3267.01733140173</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E14" s="54" t="n">
         <v>63</v>
@@ -28220,13 +28133,13 @@
         <v>3282.44663329833</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E15" s="54" t="n">
         <v>63.5</v>
@@ -28254,13 +28167,13 @@
         <v>3341.6526666741</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E16" s="54" t="n">
         <v>65.5</v>
@@ -28288,13 +28201,13 @@
         <v>3355.82074546146</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E17" s="54" t="n">
         <v>66</v>
@@ -28322,13 +28235,13 @@
         <v>3369.73326549891</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E18" s="54" t="n">
         <v>66.5</v>
@@ -28356,13 +28269,13 @@
         <v>3422.80686191451</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E19" s="54" t="n">
         <v>68.5</v>
@@ -28390,13 +28303,13 @@
         <v>3435.42608784642</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E20" s="54" t="n">
         <v>69</v>
@@ -28424,13 +28337,13 @@
         <v>4209.7772731897</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E21" s="54" t="n">
         <v>61.5</v>
@@ -28455,13 +28368,13 @@
         <v>4230.92538993366</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E22" s="54" t="n">
         <v>62</v>
@@ -28489,13 +28402,13 @@
         <v>4292.43021277474</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E23" s="54" t="n">
         <v>63.5</v>
@@ -28523,13 +28436,13 @@
         <v>4312.28010698881</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="D24" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E24" s="54" t="n">
         <v>64</v>
@@ -28557,13 +28470,13 @@
         <v>4388.38097483422</v>
       </c>
       <c r="B25" s="62" t="s">
+        <v>779</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>775</v>
+      </c>
+      <c r="D25" s="60" t="s">
         <v>767</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>763</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>755</v>
       </c>
       <c r="E25" s="54" t="n">
         <v>66</v>
@@ -28591,13 +28504,13 @@
         <v>4406.57427026781</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="D26" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E26" s="54" t="n">
         <v>66.5</v>
@@ -28625,13 +28538,13 @@
         <v>4459.1352762821</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E27" s="54" t="n">
         <v>68</v>
@@ -28659,13 +28572,13 @@
         <v>4508.64021362652</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E28" s="54" t="n">
         <v>69.5</v>
@@ -28693,13 +28606,13 @@
         <v>4524.45680811247</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="D29" s="60" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="E29" s="54" t="n">
         <v>70</v>

--- a/data/cpmcfgWVLEN Table.xlsx
+++ b/data/cpmcfgWVLEN Table.xlsx
@@ -3830,8 +3830,8 @@
   </sheetPr>
   <dimension ref="A1:KG52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="EP1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="EY2" activeCellId="0" sqref="EY2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="ES1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="EY1" activeCellId="0" sqref="EY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/cpmcfgWVLEN Table.xlsx
+++ b/data/cpmcfgWVLEN Table.xlsx
@@ -3830,8 +3830,8 @@
   </sheetPr>
   <dimension ref="A1:KG52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="ES1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="EY1" activeCellId="0" sqref="EY1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CJ1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CM42" activeCellId="0" sqref="CM42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8683,7 +8683,7 @@
         <v>958.693420975351</v>
       </c>
       <c r="AD7" s="33" t="n">
-        <v>2000</v>
+        <v>2000.1</v>
       </c>
       <c r="AE7" s="33" t="n">
         <v>1750.93321020516</v>
@@ -8879,9 +8879,7 @@
         <f aca="false">IF(OR($S7+J$52&lt;'Standard Settings'!$G2,$S7+J$52&gt;'Standard Settings'!$I2),-1,BS7*(($D7+J$52)/($D7+J$52-0.5)))</f>
         <v>967.847954979508</v>
       </c>
-      <c r="CL7" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL7" s="36"/>
       <c r="CM7" s="36" t="n">
         <f aca="false">IF(OR($S7+B$52&lt;'Standard Settings'!$G2,$S7+B$52&gt;'Standard Settings'!$I2),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S7+B$52))*(SIN('Standard Settings'!$F2)+SIN('Standard Settings'!$F2+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>1097.30715778921</v>
@@ -8918,12 +8916,8 @@
         <f aca="false">IF(OR($S7+J$52&lt;'Standard Settings'!$G2,$S7+J$52&gt;'Standard Settings'!$I2),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S7+J$52))*(SIN('Standard Settings'!$F2)+SIN('Standard Settings'!$F2+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>948.519746563556</v>
       </c>
-      <c r="CV7" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW7" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV7" s="36"/>
+      <c r="CW7" s="36"/>
       <c r="CX7" s="36" t="n">
         <f aca="false">IF(OR($S7+B$52&lt;'Standard Settings'!$G2,$S7+B$52&gt;'Standard Settings'!$I2),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S7+B$52))*(SIN('Standard Settings'!$F2)+SIN('Standard Settings'!$F2+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>1104.97272816297</v>
@@ -9553,9 +9547,7 @@
         <f aca="false">IF(OR($S8+J$52&lt;'Standard Settings'!$G3,$S8+J$52&gt;'Standard Settings'!$I3),-1,BS8*(($D8+J$52)/($D8+J$52-0.5)))</f>
         <v>970.061546023893</v>
       </c>
-      <c r="CL8" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL8" s="36"/>
       <c r="CM8" s="36" t="n">
         <f aca="false">IF(OR($S8+B$52&lt;'Standard Settings'!$G3,$S8+B$52&gt;'Standard Settings'!$I3),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S8+B$52))*(SIN('Standard Settings'!$F3)+SIN('Standard Settings'!$F3+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>1102.29785581599</v>
@@ -9592,12 +9584,8 @@
         <f aca="false">IF(OR($S8+J$52&lt;'Standard Settings'!$G3,$S8+J$52&gt;'Standard Settings'!$I3),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S8+J$52))*(SIN('Standard Settings'!$F3)+SIN('Standard Settings'!$F3+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>952.833739773144</v>
       </c>
-      <c r="CV8" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW8" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV8" s="36"/>
+      <c r="CW8" s="36"/>
       <c r="CX8" s="36" t="n">
         <f aca="false">IF(OR($S8+B$52&lt;'Standard Settings'!$G3,$S8+B$52&gt;'Standard Settings'!$I3),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S8+B$52))*(SIN('Standard Settings'!$F3)+SIN('Standard Settings'!$F3+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>1109.84602103845</v>
@@ -10227,9 +10215,7 @@
         <f aca="false">IF(OR($S9+J$52&lt;'Standard Settings'!$G4,$S9+J$52&gt;'Standard Settings'!$I4),-1,BS9*(($D9+J$52)/($D9+J$52-0.5)))</f>
         <v>1143.58536736564</v>
       </c>
-      <c r="CL9" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL9" s="36"/>
       <c r="CM9" s="36" t="n">
         <f aca="false">IF(OR($S9+B$52&lt;'Standard Settings'!$G4,$S9+B$52&gt;'Standard Settings'!$I4),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S9+B$52))*(SIN('Standard Settings'!$F4)+SIN('Standard Settings'!$F4+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>1332.4444058869</v>
@@ -10266,12 +10252,8 @@
         <f aca="false">IF(OR($S9+J$52&lt;'Standard Settings'!$G4,$S9+J$52&gt;'Standard Settings'!$I4),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S9+J$52))*(SIN('Standard Settings'!$F4)+SIN('Standard Settings'!$F4+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>1119.253300945</v>
       </c>
-      <c r="CV9" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW9" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV9" s="36"/>
+      <c r="CW9" s="36"/>
       <c r="CX9" s="36" t="n">
         <f aca="false">IF(OR($S9+B$52&lt;'Standard Settings'!$G4,$S9+B$52&gt;'Standard Settings'!$I4),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S9+B$52))*(SIN('Standard Settings'!$F4)+SIN('Standard Settings'!$F4+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>1341.75259848361</v>
@@ -10901,9 +10883,7 @@
         <f aca="false">IF(OR($S10+J$52&lt;'Standard Settings'!$G5,$S10+J$52&gt;'Standard Settings'!$I5),-1,BS10*(($D10+J$52)/($D10+J$52-0.5)))</f>
         <v>1146.20089216441</v>
       </c>
-      <c r="CL10" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL10" s="36"/>
       <c r="CM10" s="36" t="n">
         <f aca="false">IF(OR($S10+B$52&lt;'Standard Settings'!$G5,$S10+B$52&gt;'Standard Settings'!$I5),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S10+B$52))*(SIN('Standard Settings'!$F5)+SIN('Standard Settings'!$F5+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>1338.50453920513</v>
@@ -10940,12 +10920,8 @@
         <f aca="false">IF(OR($S10+J$52&lt;'Standard Settings'!$G5,$S10+J$52&gt;'Standard Settings'!$I5),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S10+J$52))*(SIN('Standard Settings'!$F5)+SIN('Standard Settings'!$F5+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>1124.34381293231</v>
       </c>
-      <c r="CV10" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW10" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV10" s="36"/>
+      <c r="CW10" s="36"/>
       <c r="CX10" s="36" t="n">
         <f aca="false">IF(OR($S10+B$52&lt;'Standard Settings'!$G5,$S10+B$52&gt;'Standard Settings'!$I5),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S10+B$52))*(SIN('Standard Settings'!$F5)+SIN('Standard Settings'!$F5+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>1347.67016840383</v>
@@ -11575,9 +11551,7 @@
         <f aca="false">IF(OR($S11+J$52&lt;'Standard Settings'!$G6,$S11+J$52&gt;'Standard Settings'!$I6),-1,BS11*(($D11+J$52)/($D11+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL11" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL11" s="36"/>
       <c r="CM11" s="36" t="n">
         <f aca="false">IF(OR($S11+B$52&lt;'Standard Settings'!$G6,$S11+B$52&gt;'Standard Settings'!$I6),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S11+B$52))*(SIN('Standard Settings'!$F6)+SIN('Standard Settings'!$F6+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>1740.74617731708</v>
@@ -11614,12 +11588,8 @@
         <f aca="false">IF(OR($S11+J$52&lt;'Standard Settings'!$G6,$S11+J$52&gt;'Standard Settings'!$I6),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S11+J$52))*(SIN('Standard Settings'!$F6)+SIN('Standard Settings'!$F6+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV11" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW11" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV11" s="36"/>
+      <c r="CW11" s="36"/>
       <c r="CX11" s="36" t="n">
         <f aca="false">IF(OR($S11+B$52&lt;'Standard Settings'!$G6,$S11+B$52&gt;'Standard Settings'!$I6),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S11+B$52))*(SIN('Standard Settings'!$F6)+SIN('Standard Settings'!$F6+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>1753.14936418806</v>
@@ -12249,9 +12219,7 @@
         <f aca="false">IF(OR($S12+J$52&lt;'Standard Settings'!$G7,$S12+J$52&gt;'Standard Settings'!$I7),-1,BS12*(($D12+J$52)/($D12+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL12" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL12" s="36"/>
       <c r="CM12" s="36" t="n">
         <f aca="false">IF(OR($S12+B$52&lt;'Standard Settings'!$G7,$S12+B$52&gt;'Standard Settings'!$I7),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S12+B$52))*(SIN('Standard Settings'!$F7)+SIN('Standard Settings'!$F7+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>1748.83328272656</v>
@@ -12288,12 +12256,8 @@
         <f aca="false">IF(OR($S12+J$52&lt;'Standard Settings'!$G7,$S12+J$52&gt;'Standard Settings'!$I7),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S12+J$52))*(SIN('Standard Settings'!$F7)+SIN('Standard Settings'!$F7+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV12" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW12" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV12" s="36"/>
+      <c r="CW12" s="36"/>
       <c r="CX12" s="36" t="n">
         <f aca="false">IF(OR($S12+B$52&lt;'Standard Settings'!$G7,$S12+B$52&gt;'Standard Settings'!$I7),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S12+B$52))*(SIN('Standard Settings'!$F7)+SIN('Standard Settings'!$F7+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>1761.05028550974</v>
@@ -12923,9 +12887,7 @@
         <f aca="false">IF(OR($S13+J$52&lt;'Standard Settings'!$G8,$S13+J$52&gt;'Standard Settings'!$I8),-1,BS13*(($D13+J$52)/($D13+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL13" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL13" s="36"/>
       <c r="CM13" s="36" t="n">
         <f aca="false">IF(OR($S13+B$52&lt;'Standard Settings'!$G8,$S13+B$52&gt;'Standard Settings'!$I8),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S13+B$52))*(SIN('Standard Settings'!$F8)+SIN('Standard Settings'!$F8+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>1756.78720770673</v>
@@ -12962,12 +12924,8 @@
         <f aca="false">IF(OR($S13+J$52&lt;'Standard Settings'!$G8,$S13+J$52&gt;'Standard Settings'!$I8),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S13+J$52))*(SIN('Standard Settings'!$F8)+SIN('Standard Settings'!$F8+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV13" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW13" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV13" s="36"/>
+      <c r="CW13" s="36"/>
       <c r="CX13" s="36" t="n">
         <f aca="false">IF(OR($S13+B$52&lt;'Standard Settings'!$G8,$S13+B$52&gt;'Standard Settings'!$I8),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S13+B$52))*(SIN('Standard Settings'!$F8)+SIN('Standard Settings'!$F8+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>1768.81709603003</v>
@@ -13595,9 +13553,7 @@
         <f aca="false">IF(OR($S14+J$52&lt;'Standard Settings'!$G9,$S14+J$52&gt;'Standard Settings'!$I9),-1,BS14*(($D14+J$52)/($D14+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL14" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL14" s="36"/>
       <c r="CM14" s="36" t="n">
         <f aca="false">IF(OR($S14+B$52&lt;'Standard Settings'!$G9,$S14+B$52&gt;'Standard Settings'!$I9),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S14+B$52))*(SIN('Standard Settings'!$F9)+SIN('Standard Settings'!$F9+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>1764.60734653541</v>
@@ -13634,12 +13590,8 @@
         <f aca="false">IF(OR($S14+J$52&lt;'Standard Settings'!$G9,$S14+J$52&gt;'Standard Settings'!$I9),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S14+J$52))*(SIN('Standard Settings'!$F9)+SIN('Standard Settings'!$F9+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV14" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW14" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV14" s="36"/>
+      <c r="CW14" s="36"/>
       <c r="CX14" s="36" t="n">
         <f aca="false">IF(OR($S14+B$52&lt;'Standard Settings'!$G9,$S14+B$52&gt;'Standard Settings'!$I9),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S14+B$52))*(SIN('Standard Settings'!$F9)+SIN('Standard Settings'!$F9+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>1776.44920427622</v>
@@ -14267,9 +14219,7 @@
         <f aca="false">IF(OR($S15+J$52&lt;'Standard Settings'!$G10,$S15+J$52&gt;'Standard Settings'!$I10),-1,BS15*(($D15+J$52)/($D15+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL15" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL15" s="36"/>
       <c r="CM15" s="36" t="n">
         <f aca="false">IF(OR($S15+B$52&lt;'Standard Settings'!$G10,$S15+B$52&gt;'Standard Settings'!$I10),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S15+B$52))*(SIN('Standard Settings'!$F10)+SIN('Standard Settings'!$F10+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -14306,12 +14256,8 @@
         <f aca="false">IF(OR($S15+J$52&lt;'Standard Settings'!$G10,$S15+J$52&gt;'Standard Settings'!$I10),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S15+J$52))*(SIN('Standard Settings'!$F10)+SIN('Standard Settings'!$F10+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV15" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW15" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV15" s="36"/>
+      <c r="CW15" s="36"/>
       <c r="CX15" s="36" t="n">
         <f aca="false">IF(OR($S15+B$52&lt;'Standard Settings'!$G10,$S15+B$52&gt;'Standard Settings'!$I10),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S15+B$52))*(SIN('Standard Settings'!$F10)+SIN('Standard Settings'!$F10+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -14941,9 +14887,7 @@
         <f aca="false">IF(OR($S16+J$52&lt;'Standard Settings'!$G11,$S16+J$52&gt;'Standard Settings'!$I11),-1,BS16*(($D16+J$52)/($D16+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL16" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL16" s="36"/>
       <c r="CM16" s="36" t="n">
         <f aca="false">IF(OR($S16+B$52&lt;'Standard Settings'!$G11,$S16+B$52&gt;'Standard Settings'!$I11),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S16+B$52))*(SIN('Standard Settings'!$F11)+SIN('Standard Settings'!$F11+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -14980,12 +14924,8 @@
         <f aca="false">IF(OR($S16+J$52&lt;'Standard Settings'!$G11,$S16+J$52&gt;'Standard Settings'!$I11),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S16+J$52))*(SIN('Standard Settings'!$F11)+SIN('Standard Settings'!$F11+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV16" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW16" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV16" s="36"/>
+      <c r="CW16" s="36"/>
       <c r="CX16" s="36" t="n">
         <f aca="false">IF(OR($S16+B$52&lt;'Standard Settings'!$G11,$S16+B$52&gt;'Standard Settings'!$I11),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S16+B$52))*(SIN('Standard Settings'!$F11)+SIN('Standard Settings'!$F11+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -15613,9 +15553,7 @@
         <f aca="false">IF(OR($S17+J$52&lt;'Standard Settings'!$G12,$S17+J$52&gt;'Standard Settings'!$I12),-1,BS17*(($D17+J$52)/($D17+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL17" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL17" s="36"/>
       <c r="CM17" s="36" t="n">
         <f aca="false">IF(OR($S17+B$52&lt;'Standard Settings'!$G12,$S17+B$52&gt;'Standard Settings'!$I12),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S17+B$52))*(SIN('Standard Settings'!$F12)+SIN('Standard Settings'!$F12+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -15652,12 +15590,8 @@
         <f aca="false">IF(OR($S17+J$52&lt;'Standard Settings'!$G12,$S17+J$52&gt;'Standard Settings'!$I12),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S17+J$52))*(SIN('Standard Settings'!$F12)+SIN('Standard Settings'!$F12+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV17" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW17" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV17" s="36"/>
+      <c r="CW17" s="36"/>
       <c r="CX17" s="36" t="n">
         <f aca="false">IF(OR($S17+B$52&lt;'Standard Settings'!$G12,$S17+B$52&gt;'Standard Settings'!$I12),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S17+B$52))*(SIN('Standard Settings'!$F12)+SIN('Standard Settings'!$F12+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -16283,9 +16217,7 @@
         <f aca="false">IF(OR($S18+J$52&lt;'Standard Settings'!$G13,$S18+J$52&gt;'Standard Settings'!$I13),-1,BS18*(($D18+J$52)/($D18+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL18" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL18" s="36"/>
       <c r="CM18" s="36" t="n">
         <f aca="false">IF(OR($S18+B$52&lt;'Standard Settings'!$G13,$S18+B$52&gt;'Standard Settings'!$I13),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S18+B$52))*(SIN('Standard Settings'!$F13)+SIN('Standard Settings'!$F13+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -16322,12 +16254,8 @@
         <f aca="false">IF(OR($S18+J$52&lt;'Standard Settings'!$G13,$S18+J$52&gt;'Standard Settings'!$I13),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S18+J$52))*(SIN('Standard Settings'!$F13)+SIN('Standard Settings'!$F13+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV18" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW18" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV18" s="36"/>
+      <c r="CW18" s="36"/>
       <c r="CX18" s="36" t="n">
         <f aca="false">IF(OR($S18+B$52&lt;'Standard Settings'!$G13,$S18+B$52&gt;'Standard Settings'!$I13),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S18+B$52))*(SIN('Standard Settings'!$F13)+SIN('Standard Settings'!$F13+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -16952,9 +16880,7 @@
         <f aca="false">IF(OR($S19+J$52&lt;'Standard Settings'!$G14,$S19+J$52&gt;'Standard Settings'!$I14),-1,BS19*(($D19+J$52)/($D19+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL19" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL19" s="36"/>
       <c r="CM19" s="36" t="n">
         <f aca="false">IF(OR($S19+B$52&lt;'Standard Settings'!$G14,$S19+B$52&gt;'Standard Settings'!$I14),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S19+B$52))*(SIN('Standard Settings'!$F14)+SIN('Standard Settings'!$F14+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -16991,12 +16917,8 @@
         <f aca="false">IF(OR($S19+J$52&lt;'Standard Settings'!$G14,$S19+J$52&gt;'Standard Settings'!$I14),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S19+J$52))*(SIN('Standard Settings'!$F14)+SIN('Standard Settings'!$F14+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV19" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW19" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV19" s="36"/>
+      <c r="CW19" s="36"/>
       <c r="CX19" s="36" t="n">
         <f aca="false">IF(OR($S19+B$52&lt;'Standard Settings'!$G14,$S19+B$52&gt;'Standard Settings'!$I14),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S19+B$52))*(SIN('Standard Settings'!$F14)+SIN('Standard Settings'!$F14+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -17621,9 +17543,7 @@
         <f aca="false">IF(OR($S20+J$52&lt;'Standard Settings'!$G15,$S20+J$52&gt;'Standard Settings'!$I15),-1,BS20*(($D20+J$52)/($D20+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL20" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL20" s="36"/>
       <c r="CM20" s="36" t="n">
         <f aca="false">IF(OR($S20+B$52&lt;'Standard Settings'!$G15,$S20+B$52&gt;'Standard Settings'!$I15),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S20+B$52))*(SIN('Standard Settings'!$F15)+SIN('Standard Settings'!$F15+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -17660,12 +17580,8 @@
         <f aca="false">IF(OR($S20+J$52&lt;'Standard Settings'!$G15,$S20+J$52&gt;'Standard Settings'!$I15),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S20+J$52))*(SIN('Standard Settings'!$F15)+SIN('Standard Settings'!$F15+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV20" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW20" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV20" s="36"/>
+      <c r="CW20" s="36"/>
       <c r="CX20" s="36" t="n">
         <f aca="false">IF(OR($S20+B$52&lt;'Standard Settings'!$G15,$S20+B$52&gt;'Standard Settings'!$I15),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S20+B$52))*(SIN('Standard Settings'!$F15)+SIN('Standard Settings'!$F15+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -18290,9 +18206,7 @@
         <f aca="false">IF(OR($S21+J$52&lt;'Standard Settings'!$G16,$S21+J$52&gt;'Standard Settings'!$I16),-1,BS21*(($D21+J$52)/($D21+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL21" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL21" s="36"/>
       <c r="CM21" s="36" t="n">
         <f aca="false">IF(OR($S21+B$52&lt;'Standard Settings'!$G16,$S21+B$52&gt;'Standard Settings'!$I16),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S21+B$52))*(SIN('Standard Settings'!$F16)+SIN('Standard Settings'!$F16+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -18329,12 +18243,8 @@
         <f aca="false">IF(OR($S21+J$52&lt;'Standard Settings'!$G16,$S21+J$52&gt;'Standard Settings'!$I16),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S21+J$52))*(SIN('Standard Settings'!$F16)+SIN('Standard Settings'!$F16+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV21" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW21" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV21" s="36"/>
+      <c r="CW21" s="36"/>
       <c r="CX21" s="36" t="n">
         <f aca="false">IF(OR($S21+B$52&lt;'Standard Settings'!$G16,$S21+B$52&gt;'Standard Settings'!$I16),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S21+B$52))*(SIN('Standard Settings'!$F16)+SIN('Standard Settings'!$F16+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -18957,9 +18867,7 @@
         <f aca="false">IF(OR($S22+J$52&lt;'Standard Settings'!$G17,$S22+J$52&gt;'Standard Settings'!$I17),-1,BS22*(($D22+J$52)/($D22+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL22" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL22" s="36"/>
       <c r="CM22" s="36" t="n">
         <f aca="false">IF(OR($S22+B$52&lt;'Standard Settings'!$G17,$S22+B$52&gt;'Standard Settings'!$I17),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S22+B$52))*(SIN('Standard Settings'!$F17)+SIN('Standard Settings'!$F17+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -18996,12 +18904,8 @@
         <f aca="false">IF(OR($S22+J$52&lt;'Standard Settings'!$G17,$S22+J$52&gt;'Standard Settings'!$I17),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S22+J$52))*(SIN('Standard Settings'!$F17)+SIN('Standard Settings'!$F17+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV22" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW22" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV22" s="36"/>
+      <c r="CW22" s="36"/>
       <c r="CX22" s="36" t="n">
         <f aca="false">IF(OR($S22+B$52&lt;'Standard Settings'!$G17,$S22+B$52&gt;'Standard Settings'!$I17),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S22+B$52))*(SIN('Standard Settings'!$F17)+SIN('Standard Settings'!$F17+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -19622,9 +19526,7 @@
         <f aca="false">IF(OR($S23+J$52&lt;'Standard Settings'!$G18,$S23+J$52&gt;'Standard Settings'!$I18),-1,BS23*(($D23+J$52)/($D23+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL23" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL23" s="36"/>
       <c r="CM23" s="36" t="n">
         <f aca="false">IF(OR($S23+B$52&lt;'Standard Settings'!$G18,$S23+B$52&gt;'Standard Settings'!$I18),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S23+B$52))*(SIN('Standard Settings'!$F18)+SIN('Standard Settings'!$F18+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -19661,12 +19563,8 @@
         <f aca="false">IF(OR($S23+J$52&lt;'Standard Settings'!$G18,$S23+J$52&gt;'Standard Settings'!$I18),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S23+J$52))*(SIN('Standard Settings'!$F18)+SIN('Standard Settings'!$F18+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV23" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW23" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV23" s="36"/>
+      <c r="CW23" s="36"/>
       <c r="CX23" s="36" t="n">
         <f aca="false">IF(OR($S23+B$52&lt;'Standard Settings'!$G18,$S23+B$52&gt;'Standard Settings'!$I18),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S23+B$52))*(SIN('Standard Settings'!$F18)+SIN('Standard Settings'!$F18+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -20285,9 +20183,7 @@
         <f aca="false">IF(OR($S24+J$52&lt;'Standard Settings'!$G19,$S24+J$52&gt;'Standard Settings'!$I19),-1,BS24*(($D24+J$52)/($D24+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL24" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL24" s="36"/>
       <c r="CM24" s="36" t="n">
         <f aca="false">IF(OR($S24+B$52&lt;'Standard Settings'!$G19,$S24+B$52&gt;'Standard Settings'!$I19),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S24+B$52))*(SIN('Standard Settings'!$F19)+SIN('Standard Settings'!$F19+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -20324,12 +20220,8 @@
         <f aca="false">IF(OR($S24+J$52&lt;'Standard Settings'!$G19,$S24+J$52&gt;'Standard Settings'!$I19),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S24+J$52))*(SIN('Standard Settings'!$F19)+SIN('Standard Settings'!$F19+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV24" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW24" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV24" s="36"/>
+      <c r="CW24" s="36"/>
       <c r="CX24" s="36" t="n">
         <f aca="false">IF(OR($S24+B$52&lt;'Standard Settings'!$G19,$S24+B$52&gt;'Standard Settings'!$I19),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S24+B$52))*(SIN('Standard Settings'!$F19)+SIN('Standard Settings'!$F19+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -20948,9 +20840,7 @@
         <f aca="false">IF(OR($S25+J$52&lt;'Standard Settings'!$G20,$S25+J$52&gt;'Standard Settings'!$I20),-1,BS25*(($D25+J$52)/($D25+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL25" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL25" s="36"/>
       <c r="CM25" s="36" t="n">
         <f aca="false">IF(OR($S25+B$52&lt;'Standard Settings'!$G20,$S25+B$52&gt;'Standard Settings'!$I20),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S25+B$52))*(SIN('Standard Settings'!$F20)+SIN('Standard Settings'!$F20+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -20987,12 +20877,8 @@
         <f aca="false">IF(OR($S25+J$52&lt;'Standard Settings'!$G20,$S25+J$52&gt;'Standard Settings'!$I20),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S25+J$52))*(SIN('Standard Settings'!$F20)+SIN('Standard Settings'!$F20+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV25" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW25" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV25" s="36"/>
+      <c r="CW25" s="36"/>
       <c r="CX25" s="36" t="n">
         <f aca="false">IF(OR($S25+B$52&lt;'Standard Settings'!$G20,$S25+B$52&gt;'Standard Settings'!$I20),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S25+B$52))*(SIN('Standard Settings'!$F20)+SIN('Standard Settings'!$F20+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -21611,9 +21497,7 @@
         <f aca="false">IF(OR($S26+J$52&lt;'Standard Settings'!$G21,$S26+J$52&gt;'Standard Settings'!$I21),-1,BS26*(($D26+J$52)/($D26+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL26" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL26" s="36"/>
       <c r="CM26" s="36" t="n">
         <f aca="false">IF(OR($S26+B$52&lt;'Standard Settings'!$G21,$S26+B$52&gt;'Standard Settings'!$I21),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S26+B$52))*(SIN('Standard Settings'!$F21)+SIN('Standard Settings'!$F21+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -21650,12 +21534,8 @@
         <f aca="false">IF(OR($S26+J$52&lt;'Standard Settings'!$G21,$S26+J$52&gt;'Standard Settings'!$I21),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S26+J$52))*(SIN('Standard Settings'!$F21)+SIN('Standard Settings'!$F21+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV26" s="36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW26" s="36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV26" s="36"/>
+      <c r="CW26" s="36"/>
       <c r="CX26" s="36" t="n">
         <f aca="false">IF(OR($S26+B$52&lt;'Standard Settings'!$G21,$S26+B$52&gt;'Standard Settings'!$I21),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S26+B$52))*(SIN('Standard Settings'!$F21)+SIN('Standard Settings'!$F21+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -22274,9 +22154,7 @@
         <f aca="false">IF(OR($S27+J$52&lt;'Standard Settings'!$G22,$S27+J$52&gt;'Standard Settings'!$I22),-1,BS27*(($D27+J$52)/($D27+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL27" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL27" s="35"/>
       <c r="CM27" s="36" t="n">
         <f aca="false">IF(OR($S27+B$52&lt;'Standard Settings'!$G22,$S27+B$52&gt;'Standard Settings'!$I22),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S27+B$52))*(SIN('Standard Settings'!$F22)+SIN('Standard Settings'!$F22+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -22313,12 +22191,8 @@
         <f aca="false">IF(OR($S27+J$52&lt;'Standard Settings'!$G22,$S27+J$52&gt;'Standard Settings'!$I22),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S27+J$52))*(SIN('Standard Settings'!$F22)+SIN('Standard Settings'!$F22+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV27" s="35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW27" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV27" s="35"/>
+      <c r="CW27" s="35"/>
       <c r="CX27" s="36" t="n">
         <f aca="false">IF(OR($S27+B$52&lt;'Standard Settings'!$G22,$S27+B$52&gt;'Standard Settings'!$I22),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S27+B$52))*(SIN('Standard Settings'!$F22)+SIN('Standard Settings'!$F22+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -22937,9 +22811,7 @@
         <f aca="false">IF(OR($S28+J$52&lt;'Standard Settings'!$G23,$S28+J$52&gt;'Standard Settings'!$I23),-1,BS28*(($D28+J$52)/($D28+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL28" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL28" s="35"/>
       <c r="CM28" s="36" t="n">
         <f aca="false">IF(OR($S28+B$52&lt;'Standard Settings'!$G23,$S28+B$52&gt;'Standard Settings'!$I23),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S28+B$52))*(SIN('Standard Settings'!$F23)+SIN('Standard Settings'!$F23+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -22976,12 +22848,8 @@
         <f aca="false">IF(OR($S28+J$52&lt;'Standard Settings'!$G23,$S28+J$52&gt;'Standard Settings'!$I23),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S28+J$52))*(SIN('Standard Settings'!$F23)+SIN('Standard Settings'!$F23+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV28" s="35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW28" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV28" s="35"/>
+      <c r="CW28" s="35"/>
       <c r="CX28" s="36" t="n">
         <f aca="false">IF(OR($S28+B$52&lt;'Standard Settings'!$G23,$S28+B$52&gt;'Standard Settings'!$I23),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S28+B$52))*(SIN('Standard Settings'!$F23)+SIN('Standard Settings'!$F23+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -23600,9 +23468,7 @@
         <f aca="false">IF(OR($S29+J$52&lt;'Standard Settings'!$G24,$S29+J$52&gt;'Standard Settings'!$I24),-1,BS29*(($D29+J$52)/($D29+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL29" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL29" s="35"/>
       <c r="CM29" s="36" t="n">
         <f aca="false">IF(OR($S29+B$52&lt;'Standard Settings'!$G24,$S29+B$52&gt;'Standard Settings'!$I24),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S29+B$52))*(SIN('Standard Settings'!$F24)+SIN('Standard Settings'!$F24+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -23639,12 +23505,8 @@
         <f aca="false">IF(OR($S29+J$52&lt;'Standard Settings'!$G24,$S29+J$52&gt;'Standard Settings'!$I24),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S29+J$52))*(SIN('Standard Settings'!$F24)+SIN('Standard Settings'!$F24+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV29" s="35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW29" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV29" s="35"/>
+      <c r="CW29" s="35"/>
       <c r="CX29" s="36" t="n">
         <f aca="false">IF(OR($S29+B$52&lt;'Standard Settings'!$G24,$S29+B$52&gt;'Standard Settings'!$I24),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S29+B$52))*(SIN('Standard Settings'!$F24)+SIN('Standard Settings'!$F24+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -24263,9 +24125,7 @@
         <f aca="false">IF(OR($S30+J$52&lt;'Standard Settings'!$G25,$S30+J$52&gt;'Standard Settings'!$I25),-1,BS30*(($D30+J$52)/($D30+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL30" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL30" s="35"/>
       <c r="CM30" s="36" t="n">
         <f aca="false">IF(OR($S30+B$52&lt;'Standard Settings'!$G25,$S30+B$52&gt;'Standard Settings'!$I25),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S30+B$52))*(SIN('Standard Settings'!$F25)+SIN('Standard Settings'!$F25+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -24302,12 +24162,8 @@
         <f aca="false">IF(OR($S30+J$52&lt;'Standard Settings'!$G25,$S30+J$52&gt;'Standard Settings'!$I25),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S30+J$52))*(SIN('Standard Settings'!$F25)+SIN('Standard Settings'!$F25+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV30" s="35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW30" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV30" s="35"/>
+      <c r="CW30" s="35"/>
       <c r="CX30" s="36" t="n">
         <f aca="false">IF(OR($S30+B$52&lt;'Standard Settings'!$G25,$S30+B$52&gt;'Standard Settings'!$I25),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S30+B$52))*(SIN('Standard Settings'!$F25)+SIN('Standard Settings'!$F25+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -24926,9 +24782,7 @@
         <f aca="false">IF(OR($S31+J$52&lt;'Standard Settings'!$G26,$S31+J$52&gt;'Standard Settings'!$I26),-1,BS31*(($D31+J$52)/($D31+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL31" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL31" s="35"/>
       <c r="CM31" s="36" t="n">
         <f aca="false">IF(OR($S31+B$52&lt;'Standard Settings'!$G26,$S31+B$52&gt;'Standard Settings'!$I26),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S31+B$52))*(SIN('Standard Settings'!$F26)+SIN('Standard Settings'!$F26+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -24965,12 +24819,8 @@
         <f aca="false">IF(OR($S31+J$52&lt;'Standard Settings'!$G26,$S31+J$52&gt;'Standard Settings'!$I26),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S31+J$52))*(SIN('Standard Settings'!$F26)+SIN('Standard Settings'!$F26+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV31" s="35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW31" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV31" s="35"/>
+      <c r="CW31" s="35"/>
       <c r="CX31" s="36" t="n">
         <f aca="false">IF(OR($S31+B$52&lt;'Standard Settings'!$G26,$S31+B$52&gt;'Standard Settings'!$I26),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S31+B$52))*(SIN('Standard Settings'!$F26)+SIN('Standard Settings'!$F26+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -25589,9 +25439,7 @@
         <f aca="false">IF(OR($S32+J$52&lt;'Standard Settings'!$G27,$S32+J$52&gt;'Standard Settings'!$I27),-1,BS32*(($D32+J$52)/($D32+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL32" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL32" s="35"/>
       <c r="CM32" s="36" t="n">
         <f aca="false">IF(OR($S32+B$52&lt;'Standard Settings'!$G27,$S32+B$52&gt;'Standard Settings'!$I27),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S32+B$52))*(SIN('Standard Settings'!$F27)+SIN('Standard Settings'!$F27+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -25628,12 +25476,8 @@
         <f aca="false">IF(OR($S32+J$52&lt;'Standard Settings'!$G27,$S32+J$52&gt;'Standard Settings'!$I27),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S32+J$52))*(SIN('Standard Settings'!$F27)+SIN('Standard Settings'!$F27+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV32" s="35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW32" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV32" s="35"/>
+      <c r="CW32" s="35"/>
       <c r="CX32" s="36" t="n">
         <f aca="false">IF(OR($S32+B$52&lt;'Standard Settings'!$G27,$S32+B$52&gt;'Standard Settings'!$I27),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S32+B$52))*(SIN('Standard Settings'!$F27)+SIN('Standard Settings'!$F27+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -26252,9 +26096,7 @@
         <f aca="false">IF(OR($S33+J$52&lt;'Standard Settings'!$G28,$S33+J$52&gt;'Standard Settings'!$I28),-1,BS33*(($D33+J$52)/($D33+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL33" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL33" s="35"/>
       <c r="CM33" s="36" t="n">
         <f aca="false">IF(OR($S33+B$52&lt;'Standard Settings'!$G28,$S33+B$52&gt;'Standard Settings'!$I28),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S33+B$52))*(SIN('Standard Settings'!$F28)+SIN('Standard Settings'!$F28+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -26291,12 +26133,8 @@
         <f aca="false">IF(OR($S33+J$52&lt;'Standard Settings'!$G28,$S33+J$52&gt;'Standard Settings'!$I28),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S33+J$52))*(SIN('Standard Settings'!$F28)+SIN('Standard Settings'!$F28+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV33" s="35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW33" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV33" s="35"/>
+      <c r="CW33" s="35"/>
       <c r="CX33" s="36" t="n">
         <f aca="false">IF(OR($S33+B$52&lt;'Standard Settings'!$G28,$S33+B$52&gt;'Standard Settings'!$I28),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S33+B$52))*(SIN('Standard Settings'!$F28)+SIN('Standard Settings'!$F28+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>
@@ -26915,9 +26753,7 @@
         <f aca="false">IF(OR($S34+J$52&lt;'Standard Settings'!$G29,$S34+J$52&gt;'Standard Settings'!$I29),-1,BS34*(($D34+J$52)/($D34+J$52-0.5)))</f>
         <v>-1</v>
       </c>
-      <c r="CL34" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CL34" s="35"/>
       <c r="CM34" s="36" t="n">
         <f aca="false">IF(OR($S34+B$52&lt;'Standard Settings'!$G29,$S34+B$52&gt;'Standard Settings'!$I29),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S34+B$52))*(SIN('Standard Settings'!$F29)+SIN('Standard Settings'!$F29+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
@@ -26954,12 +26790,8 @@
         <f aca="false">IF(OR($S34+J$52&lt;'Standard Settings'!$G29,$S34+J$52&gt;'Standard Settings'!$I29),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S34+J$52))*(SIN('Standard Settings'!$F29)+SIN('Standard Settings'!$F29+EchelleFPAparam!$M$3+EchelleFPAparam!$F$3)))</f>
         <v>-1</v>
       </c>
-      <c r="CV34" s="35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CW34" s="35" t="n">
-        <v>-1</v>
-      </c>
+      <c r="CV34" s="35"/>
+      <c r="CW34" s="35"/>
       <c r="CX34" s="36" t="n">
         <f aca="false">IF(OR($S34+B$52&lt;'Standard Settings'!$G29,$S34+B$52&gt;'Standard Settings'!$I29),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S34+B$52))*(SIN('Standard Settings'!$F29)+SIN('Standard Settings'!$F29+EchelleFPAparam!$M$3+EchelleFPAparam!$G$3)))</f>
         <v>-1</v>

--- a/data/cpmcfgWVLEN Table.xlsx
+++ b/data/cpmcfgWVLEN Table.xlsx
@@ -3830,8 +3830,8 @@
   </sheetPr>
   <dimension ref="A1:KG52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CJ1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CM42" activeCellId="0" sqref="CM42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO8" activeCellId="0" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8683,7 +8683,7 @@
         <v>958.693420975351</v>
       </c>
       <c r="AD7" s="33" t="n">
-        <v>2000.1</v>
+        <v>1984.3</v>
       </c>
       <c r="AE7" s="33" t="n">
         <v>1750.93321020516</v>
@@ -8713,7 +8713,9 @@
         <v>37.1</v>
       </c>
       <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
+      <c r="AO7" s="33" t="n">
+        <v>2028.1</v>
+      </c>
       <c r="AP7" s="33" t="n">
         <v>1825.13779175246</v>
       </c>

--- a/data/cpmcfgWVLEN Table.xlsx
+++ b/data/cpmcfgWVLEN Table.xlsx
@@ -3830,8 +3830,8 @@
   </sheetPr>
   <dimension ref="A1:KG52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO8" activeCellId="0" sqref="AO8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BJ10" activeCellId="0" sqref="BJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10079,7 +10079,9 @@
       <c r="AX9" s="33" t="n">
         <v>98.2951374723363</v>
       </c>
-      <c r="AY9" s="33"/>
+      <c r="AY9" s="33" t="n">
+        <v>-50.1</v>
+      </c>
       <c r="AZ9" s="33"/>
       <c r="BA9" s="33" t="n">
         <v>1965.19479948075</v>
@@ -10108,7 +10110,9 @@
       <c r="BI9" s="33" t="n">
         <v>145.320622360176</v>
       </c>
-      <c r="BJ9" s="33"/>
+      <c r="BJ9" s="33" t="n">
+        <v>-30.2</v>
+      </c>
       <c r="BK9" s="34" t="n">
         <f aca="false">IF(OR($S9+B$52&lt;'Standard Settings'!$G4,$S9+B$52&gt;'Standard Settings'!$I4),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S9+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F4+EchelleFPAparam!$M$3)))</f>
         <v>1348.80549281441</v>

--- a/data/cpmcfgWVLEN Table.xlsx
+++ b/data/cpmcfgWVLEN Table.xlsx
@@ -3831,7 +3831,7 @@
   <dimension ref="A1:KG52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BJ10" activeCellId="0" sqref="BJ10"/>
+      <selection pane="topLeft" activeCell="AY9" activeCellId="0" sqref="AY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10080,7 +10080,7 @@
         <v>98.2951374723363</v>
       </c>
       <c r="AY9" s="33" t="n">
-        <v>-50.1</v>
+        <v>1.1</v>
       </c>
       <c r="AZ9" s="33"/>
       <c r="BA9" s="33" t="n">
@@ -10111,7 +10111,7 @@
         <v>145.320622360176</v>
       </c>
       <c r="BJ9" s="33" t="n">
-        <v>-30.2</v>
+        <v>1.1</v>
       </c>
       <c r="BK9" s="34" t="n">
         <f aca="false">IF(OR($S9+B$52&lt;'Standard Settings'!$G4,$S9+B$52&gt;'Standard Settings'!$I4),-1,(EchelleFPAparam!$S$3/('cpmcfgWVLEN_Table.csv'!$S9+B$52))*(SIN(EchelleFPAparam!$T$3-EchelleFPAparam!$M$3/2)+SIN('Standard Settings'!$F4+EchelleFPAparam!$M$3)))</f>

--- a/data/cpmcfgWVLEN Table.xlsx
+++ b/data/cpmcfgWVLEN Table.xlsx
@@ -232,9 +232,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="CL1" authorId="0">
-      <text/>
-    </comment>
     <comment ref="CM1" authorId="0">
       <text>
         <r>
@@ -250,11 +247,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="CV1" authorId="0">
-      <text/>
-    </comment>
     <comment ref="DH1" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
     </comment>
     <comment ref="EZ1" authorId="0">
       <text>
@@ -3802,7 +3807,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.66"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="409" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="617.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -3830,8 +3835,8 @@
   </sheetPr>
   <dimension ref="A1:KG52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY9" activeCellId="0" sqref="AY9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DB1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DI9" activeCellId="0" sqref="DI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/cpmcfgWVLEN Table.xlsx
+++ b/data/cpmcfgWVLEN Table.xlsx
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="772">
   <si>
     <t xml:space="preserve">European Organisation for Astronomical Research in the Southern Hemisphere</t>
   </si>
@@ -785,6 +785,9 @@
     <t xml:space="preserve">O8 Central Wavelength</t>
   </si>
   <si>
+    <t xml:space="preserve">O-1 Central Y Det1</t>
+  </si>
+  <si>
     <t xml:space="preserve">O0 Central Y Det1</t>
   </si>
   <si>
@@ -812,6 +815,12 @@
     <t xml:space="preserve">O8 Central Y Det1</t>
   </si>
   <si>
+    <t xml:space="preserve">O9 Central Y Det1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-1 Central Y Det2</t>
+  </si>
+  <si>
     <t xml:space="preserve">O0 Central Y Det2</t>
   </si>
   <si>
@@ -839,6 +848,12 @@
     <t xml:space="preserve">O8 Central Y Det2</t>
   </si>
   <si>
+    <t xml:space="preserve">O9 Central Y Det2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-1 Central Y Det3</t>
+  </si>
+  <si>
     <t xml:space="preserve">O0 Central Y Det3</t>
   </si>
   <si>
@@ -866,6 +881,9 @@
     <t xml:space="preserve">O8 Central Y Det3</t>
   </si>
   <si>
+    <t xml:space="preserve">O9 Central Y Det3</t>
+  </si>
+  <si>
     <t xml:space="preserve">O0 Blaze WVLEN</t>
   </si>
   <si>
@@ -1571,6 +1589,9 @@
     <t xml:space="preserve">maxord</t>
   </si>
   <si>
+    <t xml:space="preserve">cenY1-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">cenY10</t>
   </si>
   <si>
@@ -1598,6 +1619,12 @@
     <t xml:space="preserve">cenY18</t>
   </si>
   <si>
+    <t xml:space="preserve">cenY19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cenY2-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">cenY20</t>
   </si>
   <si>
@@ -1625,6 +1652,12 @@
     <t xml:space="preserve">cenY28</t>
   </si>
   <si>
+    <t xml:space="preserve">cenY29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cenY3-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">cenY30</t>
   </si>
   <si>
@@ -1650,6 +1683,9 @@
   </si>
   <si>
     <t xml:space="preserve">cenY38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cenY39</t>
   </si>
   <si>
     <t xml:space="preserve">wlenMinO0</t>
@@ -3796,8 +3832,8 @@
   </sheetPr>
   <dimension ref="A1:JU52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO6" activeCellId="0" sqref="AO6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3984,4290 +4020,4370 @@
       <c r="AC1" s="12" t="s">
         <v>52</v>
       </c>
+      <c r="AD1" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="AE1" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF1" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH1" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI1" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK1" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL1" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM1" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="AP1" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AQ1" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AR1" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AS1" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AT1" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AU1" s="12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AV1" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AW1" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AX1" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="BA1" s="12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="BB1" s="12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="BC1" s="12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="BD1" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="BE1" s="12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BF1" s="12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="BG1" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="BH1" s="12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="BI1" s="12" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="BJ1" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BK1" s="12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="BL1" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="BM1" s="12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="BN1" s="12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="BO1" s="12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="BP1" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="BQ1" s="12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="BR1" s="12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="BS1" s="12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="BT1" s="12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="BU1" s="12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="BV1" s="12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="BW1" s="12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="BX1" s="12" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="BY1" s="12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="BZ1" s="12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="CA1" s="12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="CB1" s="12" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="CC1" s="12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="CD1" s="12" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="CE1" s="12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="CF1" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="CG1" s="12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="CH1" s="12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="CI1" s="12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="CJ1" s="12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="CK1" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="CL1" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="CM1" s="12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="CN1" s="12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="CO1" s="12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="CP1" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="CQ1" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="CR1" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CS1" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="CT1" s="12" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="CU1" s="12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="CV1" s="12" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="CW1" s="12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="CX1" s="12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="CY1" s="12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="CZ1" s="12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="DA1" s="12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="DB1" s="12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="DC1" s="12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="DD1" s="12" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="DE1" s="12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="DF1" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="DG1" s="12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="DH1" s="12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="DI1" s="12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="DJ1" s="12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="DK1" s="12" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="DL1" s="12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="DM1" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="DN1" s="12" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="DO1" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="DP1" s="12" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="DQ1" s="12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="DR1" s="12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="DS1" s="12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="DT1" s="12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="DU1" s="12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="DV1" s="12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="DW1" s="12" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="DX1" s="12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="DY1" s="12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="DZ1" s="12" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="EA1" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="EB1" s="12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="EC1" s="12" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="ED1" s="12" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="EE1" s="12" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="EF1" s="12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="EG1" s="12" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="EH1" s="12" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="EI1" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="EJ1" s="12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EK1" s="12" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="EL1" s="12" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="EM1" s="12" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="EN1" s="12" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="EO1" s="12" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="EP1" s="14" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="EQ1" s="12" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="ER1" s="12" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="ES1" s="12" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="ET1" s="12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="EU1" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="EV1" s="12" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="EW1" s="12" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="EX1" s="12" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="EY1" s="12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="EZ1" s="12" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="FA1" s="12" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="FB1" s="12" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="FC1" s="12" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="FD1" s="12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="FE1" s="12" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="FF1" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="FG1" s="12" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="FH1" s="12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="FI1" s="12" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="FJ1" s="12" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="FK1" s="15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="FL1" s="15" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="FM1" s="15" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="FN1" s="15" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="FO1" s="15" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="FP1" s="16" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="FQ1" s="16" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="FR1" s="15" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="FS1" s="15" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="FT1" s="15" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="FU1" s="15" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="FV1" s="16" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="FW1" s="16" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="FX1" s="15" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="FY1" s="15" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="FZ1" s="15" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="GA1" s="15" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="GB1" s="16" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="GC1" s="16" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="GD1" s="15" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="GE1" s="15" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="GF1" s="15" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="GG1" s="15" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="GH1" s="16" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="GI1" s="16" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="GJ1" s="15" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="GK1" s="15" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="GL1" s="15" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="GM1" s="15" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="GN1" s="16" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="GO1" s="16" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="GP1" s="15" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="GQ1" s="15" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="GR1" s="15" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="GS1" s="15" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="GT1" s="16" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="GU1" s="16" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="GV1" s="15" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="GW1" s="15" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="GX1" s="15" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="GY1" s="15" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="GZ1" s="16" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="HA1" s="16" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="HB1" s="15" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="HC1" s="15" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="HD1" s="15" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="HE1" s="15" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="HF1" s="16" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="HG1" s="16" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="HH1" s="15" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="HI1" s="15" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="HJ1" s="15" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="HK1" s="15" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="HL1" s="16" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="HM1" s="16" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="HN1" s="15" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="HO1" s="15" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="HP1" s="15" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="HQ1" s="15" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="HR1" s="16" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="HS1" s="16" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="HT1" s="15" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="HU1" s="15" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="HV1" s="15" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="HW1" s="15" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="HX1" s="16" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="HY1" s="16" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="HZ1" s="15" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="IA1" s="15" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="IB1" s="15" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="IC1" s="16" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="ID1" s="16" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="IE1" s="15" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="IF1" s="15" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="IG1" s="15" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="IH1" s="16" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="II1" s="16" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="IJ1" s="15" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="IK1" s="15" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="IL1" s="15" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="IM1" s="16" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="IN1" s="16" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="IO1" s="15" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="IP1" s="15" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="IQ1" s="15" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="IR1" s="16" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="IS1" s="16" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="IT1" s="15" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="IU1" s="15" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="IV1" s="15" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="IW1" s="16" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="IX1" s="16" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="IY1" s="15" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="IZ1" s="15" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="JA1" s="15" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="JB1" s="16" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="JC1" s="16" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="JD1" s="15" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="JE1" s="15" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="JF1" s="15" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="JG1" s="16" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="JH1" s="16" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="JI1" s="15" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="JJ1" s="15" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="JK1" s="15" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="JL1" s="16" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="JM1" s="16" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="JN1" s="15" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="JO1" s="15" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="JP1" s="15" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="JQ1" s="16" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="JR1" s="16" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="JS1" s="15" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="JT1" s="17"/>
       <c r="JU1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K2" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="L2" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>301</v>
-      </c>
       <c r="T2" s="13" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>321</v>
       </c>
       <c r="AE2" s="19" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AF2" s="19" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AG2" s="19" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AH2" s="19" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AI2" s="19" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AJ2" s="19" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AK2" s="19" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AL2" s="19" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="AM2" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
+        <v>330</v>
+      </c>
+      <c r="AN2" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO2" s="19" t="s">
+        <v>332</v>
+      </c>
       <c r="AP2" s="19" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AQ2" s="19" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AR2" s="19" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AS2" s="19" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AT2" s="19" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AU2" s="19" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AV2" s="19" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AW2" s="19" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AX2" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
+        <v>341</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>343</v>
+      </c>
       <c r="BA2" s="19" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="BB2" s="19" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="BC2" s="19" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="BD2" s="19" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="BE2" s="19" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="BF2" s="19" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="BG2" s="19" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="BH2" s="19" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="BI2" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="BJ2" s="19"/>
+        <v>352</v>
+      </c>
+      <c r="BJ2" s="19" t="s">
+        <v>353</v>
+      </c>
       <c r="BK2" s="22" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="BL2" s="22" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="BM2" s="22" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="BN2" s="22" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="BO2" s="22" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="BP2" s="22" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="BQ2" s="22" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="BR2" s="22" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="BS2" s="22" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="BT2" s="19" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="BU2" s="19" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="BV2" s="19" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="BW2" s="19" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="BX2" s="19" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="BY2" s="19" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="BZ2" s="19" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="CA2" s="19" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="CB2" s="19" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="CC2" s="19" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="CD2" s="19" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="CE2" s="19" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="CF2" s="19" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="CG2" s="19" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="CH2" s="19" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="CI2" s="19" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="CJ2" s="19" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="CK2" s="19" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="CL2" s="19" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="CM2" s="19" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="CN2" s="19" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="CO2" s="19" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="CP2" s="19" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="CQ2" s="19" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="CR2" s="19" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="CS2" s="19" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="CT2" s="19" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="CU2" s="19" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="CV2" s="19" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="CW2" s="19" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="CX2" s="19" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="CY2" s="19" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="CZ2" s="19" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="DA2" s="19" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="DB2" s="19" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="DC2" s="19" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="DD2" s="19" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="DE2" s="19" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="DF2" s="19" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="DG2" s="19" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="DH2" s="19" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="DI2" s="19" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="DJ2" s="19" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="DK2" s="19" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="DL2" s="19" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="DM2" s="19" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="DN2" s="19" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="DO2" s="19" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="DP2" s="19" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="DQ2" s="19" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="DR2" s="19" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="DS2" s="19" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="DT2" s="19" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="DU2" s="19" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DV2" s="19" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="DW2" s="19" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="DX2" s="19" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="DY2" s="19" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="DZ2" s="19" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="EA2" s="19" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="EB2" s="19" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="EC2" s="19" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="ED2" s="19" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="EE2" s="19" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="EF2" s="19" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="EG2" s="19" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="EH2" s="19" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="EI2" s="19" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="EJ2" s="19" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="EK2" s="19" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="EL2" s="19" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="EM2" s="19" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="EN2" s="20" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="EO2" s="20" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="EP2" s="19" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="EQ2" s="19" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="ER2" s="19" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="ES2" s="19" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="ET2" s="19" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="EU2" s="19" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="EV2" s="19" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="EW2" s="19" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="EX2" s="19" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="EY2" s="19" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="EZ2" s="19" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="FA2" s="19" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="FB2" s="19" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="FC2" s="19" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="FD2" s="19" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="FE2" s="19" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="FF2" s="19" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="FG2" s="19" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="FH2" s="19" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="FI2" s="19" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="FJ2" s="19" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="FK2" s="23" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="FL2" s="23" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="FM2" s="23" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="FN2" s="23" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="FO2" s="23" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="FP2" s="23" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="FQ2" s="23" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="FR2" s="23" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="FS2" s="23" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="FT2" s="23" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="FU2" s="23" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="FV2" s="23" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="FW2" s="23" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="FX2" s="23" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="FY2" s="23" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="FZ2" s="23" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="GA2" s="23" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="GB2" s="23" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="GC2" s="23" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="GD2" s="23" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="GE2" s="23" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="GF2" s="23" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="GG2" s="23" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="GH2" s="23" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="GI2" s="23" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="GJ2" s="23" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="GK2" s="23" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="GL2" s="23" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="GM2" s="23" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="GN2" s="23" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="GO2" s="23" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="GP2" s="23" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="GQ2" s="23" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="GR2" s="23" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="GS2" s="23" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="GT2" s="23" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="GU2" s="23" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="GV2" s="23" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="GW2" s="23" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="GX2" s="23" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="GY2" s="23" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="GZ2" s="23" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="HA2" s="23" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="HB2" s="23" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="HC2" s="23" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="HD2" s="23" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="HE2" s="23" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="HF2" s="23" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="HG2" s="23" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="HH2" s="23" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="HI2" s="23" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="HJ2" s="23" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="HK2" s="23" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="HL2" s="23" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="HM2" s="23" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="HN2" s="23" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="HO2" s="23" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="HP2" s="23" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="HQ2" s="23" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="HR2" s="23" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="HS2" s="23" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="HT2" s="23" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="HU2" s="23" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="HV2" s="23" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="HW2" s="23" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="HX2" s="23" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="HY2" s="23" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="HZ2" s="23" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="IA2" s="23" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="IB2" s="23" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="IC2" s="23" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="ID2" s="23" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="IE2" s="23" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="IF2" s="23" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="IG2" s="23" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="IH2" s="23" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="II2" s="23" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="IJ2" s="23" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="IK2" s="23" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="IL2" s="23" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="IM2" s="23" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="IN2" s="23" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="IO2" s="23" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="IP2" s="23" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="IQ2" s="23" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="IR2" s="23" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="IS2" s="23" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="IT2" s="23" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="IU2" s="23" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="IV2" s="23" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="IW2" s="23" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="IX2" s="23" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="IY2" s="23" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="IZ2" s="23" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="JA2" s="23" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="JB2" s="23" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="JC2" s="23" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="JD2" s="23" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="JE2" s="23" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="JF2" s="23" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="JG2" s="23" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="JH2" s="23" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="JI2" s="23" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="JJ2" s="23" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="JK2" s="23" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="JL2" s="23" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="JM2" s="23" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="JN2" s="23" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="JO2" s="23" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="JP2" s="23" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="JQ2" s="23" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="JR2" s="23" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="JS2" s="23" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="JT2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>568</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AH3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AJ3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AK3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AL3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AM3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>568</v>
       </c>
       <c r="AP3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AQ3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AR3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AS3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AT3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AU3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AV3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AW3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AX3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
+      </c>
+      <c r="AY3" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="AZ3" s="12" t="s">
+        <v>568</v>
       </c>
       <c r="BA3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="BB3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="BC3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="BD3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="BE3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="BF3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="BG3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="BH3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="BI3" s="12" t="s">
-        <v>556</v>
+        <v>568</v>
+      </c>
+      <c r="BJ3" s="12" t="s">
+        <v>568</v>
       </c>
       <c r="BK3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BL3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BM3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BN3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BO3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BP3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BQ3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BR3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BS3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BT3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BU3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BV3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BW3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BX3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BY3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="BZ3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CA3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CB3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CC3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CD3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CE3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CF3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CG3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CH3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CI3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CJ3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CK3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CL3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CM3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CN3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CO3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CP3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CQ3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CR3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CS3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CT3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CU3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CV3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CW3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CX3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CY3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="CZ3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DA3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DB3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DC3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DD3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DE3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DF3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DG3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DH3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DI3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DJ3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DK3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DL3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DM3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DN3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DO3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DP3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DQ3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DR3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DS3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DT3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DU3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DV3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DW3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DX3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DY3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="DZ3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EA3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EB3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EC3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="ED3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EE3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EF3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EG3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EH3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EI3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EJ3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EK3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EL3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EM3" s="12" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="EN3" s="12" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="EO3" s="12" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="EP3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EQ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="ER3" s="12" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="ES3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="ET3" s="12" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="EU3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EV3" s="12" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="EW3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EX3" s="12" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="EY3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="EZ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="FA3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="FB3" s="12" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="FC3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="FD3" s="12" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="FE3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="FF3" s="12" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="FG3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="FH3" s="12" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="FI3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="FJ3" s="12" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="FK3" s="15" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="FL3" s="15" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="FM3" s="15" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="FN3" s="15"/>
       <c r="FO3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="FP3" s="15"/>
       <c r="FQ3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="FR3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="FS3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="FT3" s="15"/>
       <c r="FU3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="FV3" s="15"/>
       <c r="FW3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="FX3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="FY3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="FZ3" s="15"/>
       <c r="GA3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="GB3" s="15"/>
       <c r="GC3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="GD3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="GE3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="GF3" s="15"/>
       <c r="GG3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="GH3" s="15"/>
       <c r="GI3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="GJ3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="GK3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="GL3" s="15"/>
       <c r="GM3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="GN3" s="15"/>
       <c r="GO3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="GP3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="GQ3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="GR3" s="15"/>
       <c r="GS3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="GT3" s="15"/>
       <c r="GU3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="GV3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="GW3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="GX3" s="15"/>
       <c r="GY3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="GZ3" s="15"/>
       <c r="HA3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HB3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HC3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HD3" s="15"/>
       <c r="HE3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="HF3" s="15"/>
       <c r="HG3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HH3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HI3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HJ3" s="15"/>
       <c r="HK3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="HL3" s="15"/>
       <c r="HM3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HN3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HO3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HP3" s="15"/>
       <c r="HQ3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="HR3" s="15"/>
       <c r="HS3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HT3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HU3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HV3" s="15"/>
       <c r="HW3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="HX3" s="15"/>
       <c r="HY3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="HZ3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="IA3" s="15"/>
       <c r="IB3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="IC3" s="15"/>
       <c r="ID3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="IE3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="IF3" s="15"/>
       <c r="IG3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="IH3" s="15"/>
       <c r="II3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="IJ3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="IK3" s="15"/>
       <c r="IL3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="IM3" s="15"/>
       <c r="IN3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="IO3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="IP3" s="15"/>
       <c r="IQ3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="IR3" s="15"/>
       <c r="IS3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="IT3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="IU3" s="15"/>
       <c r="IV3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="IW3" s="15"/>
       <c r="IX3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="IY3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="IZ3" s="15"/>
       <c r="JA3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="JB3" s="15"/>
       <c r="JC3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="JD3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="JE3" s="15"/>
       <c r="JF3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="JG3" s="15"/>
       <c r="JH3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="JI3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="JJ3" s="15"/>
       <c r="JK3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="JL3" s="15"/>
       <c r="JM3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="JN3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="JO3" s="15"/>
       <c r="JP3" s="15" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="JQ3" s="15"/>
       <c r="JR3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="JS3" s="15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="JT3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>587</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AH4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AI4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AJ4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AK4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AL4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AM4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>587</v>
       </c>
       <c r="AP4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AQ4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AR4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AS4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AT4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AU4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AV4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AW4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AX4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
+      </c>
+      <c r="AY4" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="AZ4" s="12" t="s">
+        <v>587</v>
       </c>
       <c r="BA4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="BB4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="BC4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="BD4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="BE4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="BF4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="BG4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="BH4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="BI4" s="12" t="s">
-        <v>575</v>
+        <v>587</v>
+      </c>
+      <c r="BJ4" s="12" t="s">
+        <v>587</v>
       </c>
       <c r="BK4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BL4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BM4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BN4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BO4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BP4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BQ4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BR4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BS4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BT4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BU4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BV4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BW4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BX4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BY4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="BZ4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CA4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CB4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CC4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CD4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CE4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CF4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CG4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CH4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CI4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CJ4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CK4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CL4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CM4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CN4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CO4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CP4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CQ4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CR4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CS4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CT4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CU4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CV4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CW4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CX4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CY4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="CZ4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DA4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DB4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DC4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DD4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DE4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DF4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DG4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DH4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DI4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DJ4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DK4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DL4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DM4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DN4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DO4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DP4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DQ4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DR4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DS4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DT4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DU4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DV4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DW4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DX4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DY4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="DZ4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EA4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EB4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EC4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="ED4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EE4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EF4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EG4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EH4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EI4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EJ4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EK4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EL4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EM4" s="12" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="EN4" s="12" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="EO4" s="12" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="EP4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="EQ4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="ER4" s="12" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="ES4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="ET4" s="12" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="EU4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="EV4" s="12" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="EW4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="EX4" s="12" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="EY4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="EZ4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="FA4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="FB4" s="12" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="FC4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="FD4" s="12" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="FE4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="FF4" s="12" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="FG4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="FH4" s="12" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="FI4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="FJ4" s="12" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="FK4" s="15" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="FL4" s="15" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="FM4" s="15" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="FN4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="FO4" s="15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="FP4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="FQ4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="FR4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="FS4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="FT4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="FU4" s="15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="FV4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="FW4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="FX4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="FY4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="FZ4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="GA4" s="15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="GB4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="GC4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="GD4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="GE4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="GF4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="GG4" s="15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="GH4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="GI4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="GJ4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="GK4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="GL4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="GM4" s="15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="GN4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="GO4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="GP4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="GQ4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="GR4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="GS4" s="15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="GT4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="GU4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="GV4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="GW4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="GX4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="GY4" s="15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="GZ4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="HA4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="HB4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="HC4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="HD4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="HE4" s="15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="HF4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="HG4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="HH4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="HI4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="HJ4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="HK4" s="15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="HL4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="HM4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="HN4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="HO4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="HP4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="HQ4" s="15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="HR4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="HS4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="HT4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="HU4" s="15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="HV4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="HW4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="HX4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="HY4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="HZ4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="IA4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="IB4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IC4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="ID4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="IE4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="IF4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="IG4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IH4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="II4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="IJ4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="IK4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="IL4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IM4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="IN4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="IO4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="IP4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="IQ4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IR4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="IS4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="IT4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="IU4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="IV4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="IW4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="IX4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="IY4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="IZ4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="JA4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JB4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="JC4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="JD4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="JE4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="JF4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JG4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="JH4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="JI4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="JJ4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="JK4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JL4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="JM4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="JN4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="JO4" s="15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="JP4" s="15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="JQ4" s="15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="JR4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="JS4" s="15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="JT4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>585</v>
+        <v>597</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>599</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AG5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AH5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AI5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AJ5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AK5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AL5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AM5" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
+        <v>599</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="AO5" s="13" t="s">
+        <v>599</v>
+      </c>
       <c r="AP5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AQ5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AR5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AS5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AT5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AU5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AV5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AW5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AX5" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
+        <v>599</v>
+      </c>
+      <c r="AY5" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="AZ5" s="13" t="s">
+        <v>599</v>
+      </c>
       <c r="BA5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="BB5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="BC5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="BD5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="BE5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="BF5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="BG5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="BH5" s="13" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="BI5" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="BJ5" s="13"/>
+        <v>599</v>
+      </c>
+      <c r="BJ5" s="13" t="s">
+        <v>599</v>
+      </c>
       <c r="BT5" s="25" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="BU5" s="25" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="BV5" s="25" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="BW5" s="25" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="BX5" s="25" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="BY5" s="25" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="BZ5" s="25" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="CA5" s="25" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="CB5" s="25" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="CC5" s="14" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="CD5" s="14" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="CE5" s="14" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="CF5" s="14" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="CG5" s="14" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="CH5" s="14" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="CI5" s="14" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="CJ5" s="14" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="CK5" s="14" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="CL5" s="14" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="CM5" s="14" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="CN5" s="12" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="CO5" s="12" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="CP5" s="12" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="CQ5" s="12" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="CR5" s="12" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="CS5" s="12" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="CT5" s="12" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="CU5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="CV5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="CW5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="CX5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="CY5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="CZ5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="DA5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="DB5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="DC5" s="12" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="DD5" s="12" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="DE5" s="12" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="DF5" s="12" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="DG5" s="12" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="DH5" s="12" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="DI5" s="12" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="DJ5" s="12" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="DK5" s="12" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="DL5" s="12" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="DM5" s="12" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="DN5" s="12" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="DO5" s="12" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="DP5" s="12" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="DQ5" s="12" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="DR5" s="12" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="DS5" s="12" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="DT5" s="12" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="DU5" s="12" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="DV5" s="12" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="DW5" s="12" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="DX5" s="12" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="DY5" s="12" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="DZ5" s="12" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="EA5" s="12" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="EB5" s="12" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="EC5" s="12" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="ED5" s="12" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="EE5" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="EF5" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="EG5" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="EH5" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="EI5" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="EJ5" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="EK5" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="EL5" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="EM5" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="EN5" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="EO5" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="EF5" s="12" t="s">
+      <c r="EP5" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="EG5" s="12" t="s">
+      <c r="EQ5" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="EH5" s="12" t="s">
+      <c r="ER5" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="EI5" s="12" t="s">
+      <c r="ES5" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="EJ5" s="12" t="s">
+      <c r="ET5" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="EK5" s="12" t="s">
+      <c r="EU5" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="EL5" s="12" t="s">
+      <c r="EV5" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="EM5" s="12" t="s">
+      <c r="EW5" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="EN5" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="EO5" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="EP5" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="EQ5" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="ER5" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="ES5" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="ET5" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="EU5" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="EV5" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="EW5" s="12" t="s">
-        <v>587</v>
-      </c>
       <c r="EX5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="EY5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="EZ5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FA5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FB5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FC5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FD5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FE5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FF5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FG5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FH5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FI5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FJ5" s="12" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FK5" s="15" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="FL5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FM5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FN5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FO5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FP5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FQ5" s="15" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="FR5" s="15" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="FS5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FT5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FU5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FV5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FW5" s="15" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="FX5" s="15" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="FY5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="FZ5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GA5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GB5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GC5" s="15" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="GD5" s="15" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="GE5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GF5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GG5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GH5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GI5" s="15" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="GJ5" s="15" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="GK5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GL5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GM5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GN5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GO5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GP5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GQ5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GR5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GS5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GT5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GU5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GV5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GW5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GX5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GY5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="GZ5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HA5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HB5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HC5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HD5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HE5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HF5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HG5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HH5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HI5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HJ5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HK5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HL5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HM5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HN5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HO5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HP5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HQ5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HR5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HS5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HT5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HU5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HV5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HW5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HX5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="HY5" s="15" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="HZ5" s="15" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="IA5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IB5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IC5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="ID5" s="15" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="IE5" s="15" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="IF5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IG5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IH5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="II5" s="15" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="IJ5" s="15" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="IK5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IL5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IM5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IN5" s="15" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="IO5" s="15" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="IP5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IQ5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IR5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IS5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IT5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IU5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IV5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IW5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IX5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IY5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="IZ5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JA5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JB5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JC5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JD5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JE5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JF5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JG5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JH5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JI5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JJ5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JK5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JL5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JM5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JN5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JO5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JP5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JQ5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JR5" s="15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="JS5" s="15" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="JT5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="AD6" s="26" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="AE6" s="26" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="AF6" s="26" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="AG6" s="27" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="AH6" s="26" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="AI6" s="26" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AJ6" s="26" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="AK6" s="26" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="AL6" s="26" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="AM6" s="26" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="AN6" s="26" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="AO6" s="26" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="AP6" s="26" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="AQ6" s="26" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="AR6" s="27" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="AS6" s="26" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="AT6" s="26" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AU6" s="26" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="AV6" s="26" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="AW6" s="26" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="AX6" s="26" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="AY6" s="26" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="AZ6" s="26" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="BA6" s="26" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="BB6" s="26" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="BC6" s="27" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BD6" s="26" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BE6" s="26" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="BF6" s="26" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BG6" s="26" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="BH6" s="26" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BI6" s="26" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BJ6" s="26" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BK6" s="28"/>
       <c r="BT6" s="12" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BU6" s="12" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BV6" s="12" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BW6" s="12" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BX6" s="12" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BY6" s="12" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BZ6" s="12" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="CA6" s="12" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="CB6" s="12" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="CC6" s="12" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="CD6" s="12" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="CE6" s="12" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="CF6" s="12" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="CG6" s="12" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="CH6" s="12" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="CI6" s="12" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="CJ6" s="12" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="CK6" s="12" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="CL6" s="26" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="CM6" s="26" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="CN6" s="27" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="CO6" s="26" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="CP6" s="26" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="CQ6" s="26" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="CR6" s="26" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="CS6" s="26" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="CT6" s="26" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="CU6" s="26" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="CV6" s="26" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="CW6" s="26" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="CX6" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="CY6" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="CZ6" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="DA6" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="DB6" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="DC6" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="DD6" s="26" t="s">
         <v>685</v>
       </c>
-      <c r="CY6" s="26" t="s">
+      <c r="DE6" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="CZ6" s="26" t="s">
+      <c r="DF6" s="27" t="s">
         <v>687</v>
       </c>
-      <c r="DA6" s="26" t="s">
+      <c r="DG6" s="26" t="s">
         <v>688</v>
       </c>
-      <c r="DB6" s="26" t="s">
+      <c r="DH6" s="26" t="s">
         <v>689</v>
       </c>
-      <c r="DC6" s="26" t="s">
+      <c r="DI6" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="DD6" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="DE6" s="26" t="s">
-        <v>674</v>
-      </c>
-      <c r="DF6" s="27" t="s">
-        <v>675</v>
-      </c>
-      <c r="DG6" s="26" t="s">
-        <v>676</v>
-      </c>
-      <c r="DH6" s="26" t="s">
-        <v>677</v>
-      </c>
-      <c r="DI6" s="26" t="s">
-        <v>678</v>
-      </c>
       <c r="DJ6" s="26" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="DK6" s="26" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="DL6" s="26" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="DM6" s="26" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="DN6" s="26" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="DO6" s="26" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="DP6" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="DQ6" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="DR6" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="DS6" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="DT6" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="DU6" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="DV6" s="26" t="s">
         <v>685</v>
       </c>
-      <c r="DQ6" s="26" t="s">
+      <c r="DW6" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="DR6" s="26" t="s">
+      <c r="DX6" s="27" t="s">
         <v>687</v>
       </c>
-      <c r="DS6" s="26" t="s">
+      <c r="DY6" s="26" t="s">
         <v>688</v>
       </c>
-      <c r="DT6" s="26" t="s">
+      <c r="DZ6" s="26" t="s">
         <v>689</v>
       </c>
-      <c r="DU6" s="26" t="s">
+      <c r="EA6" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="DV6" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="DW6" s="26" t="s">
-        <v>674</v>
-      </c>
-      <c r="DX6" s="27" t="s">
-        <v>675</v>
-      </c>
-      <c r="DY6" s="26" t="s">
-        <v>676</v>
-      </c>
-      <c r="DZ6" s="26" t="s">
-        <v>677</v>
-      </c>
-      <c r="EA6" s="26" t="s">
-        <v>678</v>
-      </c>
       <c r="EB6" s="26" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="EC6" s="26" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="ED6" s="26" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="EE6" s="26" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="EF6" s="26" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="EG6" s="26" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="EH6" s="26" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="EI6" s="26" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="EJ6" s="26" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="EK6" s="26" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="EL6" s="26" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="EM6" s="26" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="FK6" s="15"/>
       <c r="FL6" s="15"/>
@@ -16307,10 +16423,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O19" s="12" t="n">
         <f aca="false">'Standard Settings'!$E14</f>
@@ -16959,10 +17075,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O20" s="12" t="n">
         <f aca="false">'Standard Settings'!$E15</f>
@@ -17611,10 +17727,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O21" s="12" t="n">
         <f aca="false">'Standard Settings'!$E16</f>
@@ -18263,10 +18379,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O22" s="12" t="n">
         <f aca="false">'Standard Settings'!$E17</f>
@@ -18913,10 +19029,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O23" s="12" t="n">
         <f aca="false">'Standard Settings'!$E18</f>
@@ -19561,10 +19677,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O24" s="12" t="n">
         <f aca="false">'Standard Settings'!$E19</f>
@@ -20207,10 +20323,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O25" s="12" t="n">
         <f aca="false">'Standard Settings'!$E20</f>
@@ -20853,10 +20969,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O26" s="12" t="n">
         <f aca="false">'Standard Settings'!$E21</f>
@@ -21499,10 +21615,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O27" s="12" t="n">
         <f aca="false">'Standard Settings'!$E22</f>
@@ -22145,10 +22261,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O28" s="12" t="n">
         <f aca="false">'Standard Settings'!$E23</f>
@@ -22791,10 +22907,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O29" s="12" t="n">
         <f aca="false">'Standard Settings'!$E24</f>
@@ -23437,10 +23553,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O30" s="12" t="n">
         <f aca="false">'Standard Settings'!$E25</f>
@@ -24083,10 +24199,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O31" s="12" t="n">
         <f aca="false">'Standard Settings'!$E26</f>
@@ -24729,10 +24845,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O32" s="12" t="n">
         <f aca="false">'Standard Settings'!$E27</f>
@@ -25375,10 +25491,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O33" s="12" t="n">
         <f aca="false">'Standard Settings'!$E28</f>
@@ -26021,10 +26137,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O34" s="12" t="n">
         <f aca="false">'Standard Settings'!$E29</f>
@@ -26635,7 +26751,7 @@
     <row r="41" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="CO42" s="12" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -26649,7 +26765,7 @@
     <row r="51" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="B52" s="12" t="n">
         <v>0</v>
@@ -26679,7 +26795,7 @@
         <v>8</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="M52" s="12" t="n">
         <v>7</v>
@@ -26753,12 +26869,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="47" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="48" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -26778,68 +26894,68 @@
     </row>
     <row r="2" s="55" customFormat="true" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="49" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="51" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="K2" s="54" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="L2" s="51" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="M2" s="51" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="N2" s="51"/>
       <c r="O2" s="51" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="P2" s="51"/>
       <c r="Q2" s="31" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="R2" s="51"/>
       <c r="S2" s="51" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="T2" s="55" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="U2" s="55" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="V2" s="55" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="W2" s="55" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="AB2" s="55" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26976,34 +27092,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="P1" s="51" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27012,13 +27128,13 @@
         <v>1028.41657886447</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="E2" s="59" t="n">
         <v>65</v>
@@ -27046,13 +27162,13 @@
         <v>1032.87446060836</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="E3" s="59" t="n">
         <v>65.5</v>
@@ -27080,13 +27196,13 @@
         <v>1229.62851820751</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="E4" s="59" t="n">
         <v>65</v>
@@ -27111,13 +27227,13 @@
         <v>1234.95859420565</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="E5" s="59" t="n">
         <v>65.5</v>
@@ -27145,13 +27261,13 @@
         <v>1564.26169046599</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="E6" s="59" t="n">
         <v>64.5</v>
@@ -27176,13 +27292,13 @@
         <v>1571.19199548738</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="E7" s="59" t="n">
         <v>65</v>
@@ -27210,13 +27326,13 @@
         <v>1578.00264815166</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="E8" s="59" t="n">
         <v>65.5</v>
@@ -27244,13 +27360,13 @@
         <v>1584.69312980124</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="E9" s="59" t="n">
         <v>66</v>
@@ -27278,13 +27394,13 @@
         <v>2156.14005349441</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="E10" s="59" t="n">
         <v>64</v>
@@ -27309,13 +27425,13 @@
         <v>2165.90080218368</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="E11" s="59" t="n">
         <v>64.5</v>
@@ -27343,13 +27459,13 @@
         <v>2203.2871351339</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="E12" s="59" t="n">
         <v>66.5</v>
@@ -27377,13 +27493,13 @@
         <v>2212.21599400003</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="E13" s="59" t="n">
         <v>67</v>
@@ -27411,13 +27527,13 @@
         <v>3267.01733140173</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E14" s="59" t="n">
         <v>63</v>
@@ -27442,13 +27558,13 @@
         <v>3282.44663329833</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E15" s="59" t="n">
         <v>63.5</v>
@@ -27476,13 +27592,13 @@
         <v>3341.6526666741</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E16" s="59" t="n">
         <v>65.5</v>
@@ -27510,13 +27626,13 @@
         <v>3355.82074546146</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E17" s="59" t="n">
         <v>66</v>
@@ -27544,13 +27660,13 @@
         <v>3369.73326549891</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E18" s="59" t="n">
         <v>66.5</v>
@@ -27578,13 +27694,13 @@
         <v>3422.80686191451</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E19" s="59" t="n">
         <v>68.5</v>
@@ -27612,13 +27728,13 @@
         <v>3435.42608784642</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E20" s="59" t="n">
         <v>69</v>
@@ -27646,13 +27762,13 @@
         <v>4209.7772731897</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E21" s="59" t="n">
         <v>61.5</v>
@@ -27677,13 +27793,13 @@
         <v>4230.92538993366</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E22" s="59" t="n">
         <v>62</v>
@@ -27711,13 +27827,13 @@
         <v>4292.43021277474</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E23" s="59" t="n">
         <v>63.5</v>
@@ -27745,13 +27861,13 @@
         <v>4312.28010698881</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E24" s="59" t="n">
         <v>64</v>
@@ -27779,13 +27895,13 @@
         <v>4388.38097483422</v>
       </c>
       <c r="B25" s="67" t="s">
+        <v>767</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>763</v>
+      </c>
+      <c r="D25" s="65" t="s">
         <v>755</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>751</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>743</v>
       </c>
       <c r="E25" s="59" t="n">
         <v>66</v>
@@ -27813,13 +27929,13 @@
         <v>4406.57427026781</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E26" s="59" t="n">
         <v>66.5</v>
@@ -27847,13 +27963,13 @@
         <v>4459.1352762821</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E27" s="59" t="n">
         <v>68</v>
@@ -27881,13 +27997,13 @@
         <v>4508.64021362652</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E28" s="59" t="n">
         <v>69.5</v>
@@ -27915,13 +28031,13 @@
         <v>4524.45680811247</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="E29" s="59" t="n">
         <v>70</v>
